--- a/DatasetBI/Statistiche/Mungitura_STAT_FINE.xlsx
+++ b/DatasetBI/Statistiche/Mungitura_STAT_FINE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digig\Documents\Git hub\Information-System-Business-Intelligence\DatasetBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digig\Documents\Git hub\Information-System-Business-Intelligence\DatasetBI\Statistiche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8427A05A-A781-4508-A20C-5733C59B0CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4CFEA8-645D-4436-8F3F-C8BABE9537C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="1905" windowWidth="33480" windowHeight="13260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="1260" windowWidth="33480" windowHeight="13260" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informazioni_generali" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="buffer" sheetId="4" r:id="rId4"/>
     <sheet name="Informazioni_per_animale_univoc" sheetId="5" r:id="rId5"/>
     <sheet name="Informazioni_per_animale_totali" sheetId="6" r:id="rId6"/>
+    <sheet name="Produzione_su _tempo" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="100">
   <si>
     <t>Anno</t>
   </si>
@@ -192,12 +193,159 @@
   <si>
     <t>Mungiture_Animali_Totali</t>
   </si>
+  <si>
+    <t>2019/01</t>
+  </si>
+  <si>
+    <t>2019/02</t>
+  </si>
+  <si>
+    <t>2019/03</t>
+  </si>
+  <si>
+    <t>2019/04</t>
+  </si>
+  <si>
+    <t>2019/05</t>
+  </si>
+  <si>
+    <t>2019/06</t>
+  </si>
+  <si>
+    <t>2019/07</t>
+  </si>
+  <si>
+    <t>2019/08</t>
+  </si>
+  <si>
+    <t>2019/09</t>
+  </si>
+  <si>
+    <t>2019/10</t>
+  </si>
+  <si>
+    <t>2019/11</t>
+  </si>
+  <si>
+    <t>2019/12</t>
+  </si>
+  <si>
+    <t>2020/02</t>
+  </si>
+  <si>
+    <t>2020/01</t>
+  </si>
+  <si>
+    <t>2020/03</t>
+  </si>
+  <si>
+    <t>2020/04</t>
+  </si>
+  <si>
+    <t>2020/05</t>
+  </si>
+  <si>
+    <t>2020/06</t>
+  </si>
+  <si>
+    <t>2020/07</t>
+  </si>
+  <si>
+    <t>2020/08</t>
+  </si>
+  <si>
+    <t>2020/09</t>
+  </si>
+  <si>
+    <t>2020/10</t>
+  </si>
+  <si>
+    <t>2020/11</t>
+  </si>
+  <si>
+    <t>2020/12</t>
+  </si>
+  <si>
+    <t>2021/01</t>
+  </si>
+  <si>
+    <t>2021/02</t>
+  </si>
+  <si>
+    <t>2021/03</t>
+  </si>
+  <si>
+    <t>2021/04</t>
+  </si>
+  <si>
+    <t>2021/05</t>
+  </si>
+  <si>
+    <t>2021/06</t>
+  </si>
+  <si>
+    <t>2021/07</t>
+  </si>
+  <si>
+    <t>2021/08</t>
+  </si>
+  <si>
+    <t>2021/09</t>
+  </si>
+  <si>
+    <t>2021/10</t>
+  </si>
+  <si>
+    <t>2021/11</t>
+  </si>
+  <si>
+    <t>2021/12</t>
+  </si>
+  <si>
+    <t>2022/01</t>
+  </si>
+  <si>
+    <t>2022/02</t>
+  </si>
+  <si>
+    <t>2022/03</t>
+  </si>
+  <si>
+    <t>2022/04</t>
+  </si>
+  <si>
+    <t>2022/05</t>
+  </si>
+  <si>
+    <t>2022/06</t>
+  </si>
+  <si>
+    <t>2022/07</t>
+  </si>
+  <si>
+    <t>2022/08</t>
+  </si>
+  <si>
+    <t>2022/09</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
+    <t>2022/11</t>
+  </si>
+  <si>
+    <t>2022/12</t>
+  </si>
+  <si>
+    <t>Rapporto Produzione su Minuti totali</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +368,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,10 +414,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -275,21 +440,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -297,27 +447,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -623,7 +770,7 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AL1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +867,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -732,7 +879,7 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -747,7 +894,7 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -759,7 +906,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -771,7 +918,7 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
@@ -797,17 +944,15 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2">
         <v>10452.51</v>
       </c>
       <c r="D2">
-        <v>4480</v>
+        <v>2681</v>
       </c>
       <c r="E2">
         <v>719.1</v>
@@ -922,15 +1067,15 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3">
         <v>8941.9500000000007</v>
       </c>
       <c r="D3">
-        <v>3915</v>
+        <v>2299</v>
       </c>
       <c r="E3">
         <v>615.05999999999995</v>
@@ -1045,15 +1190,15 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4">
         <v>8808.7999999999993</v>
       </c>
       <c r="D4">
-        <v>3806</v>
+        <v>2263</v>
       </c>
       <c r="E4">
         <v>601.62</v>
@@ -1168,15 +1313,15 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>8870.2099999999991</v>
       </c>
       <c r="D5">
-        <v>3805</v>
+        <v>2256</v>
       </c>
       <c r="E5">
         <v>604.26</v>
@@ -1291,15 +1436,15 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6">
         <v>27696.77</v>
       </c>
       <c r="D6">
-        <v>12412</v>
+        <v>7036</v>
       </c>
       <c r="E6">
         <v>1955.64</v>
@@ -1414,15 +1559,15 @@
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>41008.82</v>
       </c>
       <c r="D7">
-        <v>18092</v>
+        <v>10460</v>
       </c>
       <c r="E7">
         <v>2790.06</v>
@@ -1537,15 +1682,15 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>47174.45</v>
       </c>
       <c r="D8">
-        <v>18889</v>
+        <v>11377</v>
       </c>
       <c r="E8">
         <v>3086.58</v>
@@ -1660,15 +1805,15 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>49624.71</v>
       </c>
       <c r="D9">
-        <v>20595</v>
+        <v>12394</v>
       </c>
       <c r="E9">
         <v>3237.18</v>
@@ -1783,15 +1928,15 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10">
         <v>40752.99</v>
       </c>
       <c r="D10">
-        <v>17854</v>
+        <v>10658</v>
       </c>
       <c r="E10">
         <v>2731.68</v>
@@ -1906,15 +2051,15 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>8471.65</v>
       </c>
       <c r="D11">
-        <v>3808</v>
+        <v>2241</v>
       </c>
       <c r="E11">
         <v>584.1</v>
@@ -2029,15 +2174,15 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>9920.35</v>
       </c>
       <c r="D12">
-        <v>4472</v>
+        <v>2652</v>
       </c>
       <c r="E12">
         <v>698.52</v>
@@ -2152,15 +2297,15 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13">
         <v>27941.63</v>
       </c>
       <c r="D13">
-        <v>16826</v>
+        <v>9732</v>
       </c>
       <c r="E13">
         <v>2365.92</v>
@@ -2275,17 +2420,15 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <v>37355.61</v>
       </c>
       <c r="D14">
-        <v>19976</v>
+        <v>11913</v>
       </c>
       <c r="E14">
         <v>3018.12</v>
@@ -2400,15 +2543,15 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15">
         <v>38253.01</v>
       </c>
       <c r="D15">
-        <v>19592</v>
+        <v>11490</v>
       </c>
       <c r="E15">
         <v>2896.98</v>
@@ -2523,15 +2666,15 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16">
         <v>41413.26</v>
       </c>
       <c r="D16">
-        <v>20549</v>
+        <v>11902</v>
       </c>
       <c r="E16">
         <v>3040.14</v>
@@ -2646,15 +2789,15 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17">
         <v>47698.85</v>
       </c>
       <c r="D17">
-        <v>21434</v>
+        <v>12437</v>
       </c>
       <c r="E17">
         <v>3312.9</v>
@@ -2769,15 +2912,15 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18">
         <v>54992.57</v>
       </c>
       <c r="D18">
-        <v>23008</v>
+        <v>13370</v>
       </c>
       <c r="E18">
         <v>3657.18</v>
@@ -2892,15 +3035,15 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19">
         <v>55143.83</v>
       </c>
       <c r="D19">
-        <v>21321</v>
+        <v>13082</v>
       </c>
       <c r="E19">
         <v>3577.92</v>
@@ -3015,15 +3158,15 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20">
         <v>62704.92</v>
       </c>
       <c r="D20">
-        <v>24393</v>
+        <v>14955</v>
       </c>
       <c r="E20">
         <v>4205.46</v>
@@ -3138,15 +3281,15 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21">
         <v>61063.02</v>
       </c>
       <c r="D21">
-        <v>25956</v>
+        <v>15618</v>
       </c>
       <c r="E21">
         <v>4255.74</v>
@@ -3261,15 +3404,15 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22">
         <v>53412</v>
       </c>
       <c r="D22">
-        <v>23502</v>
+        <v>14416</v>
       </c>
       <c r="E22">
         <v>3809.46</v>
@@ -3384,15 +3527,15 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23">
         <v>20990.73</v>
       </c>
       <c r="D23">
-        <v>9690</v>
+        <v>5778</v>
       </c>
       <c r="E23">
         <v>1515.24</v>
@@ -3507,15 +3650,15 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24">
         <v>45300.800000000003</v>
       </c>
       <c r="D24">
-        <v>19789</v>
+        <v>12365</v>
       </c>
       <c r="E24">
         <v>3219</v>
@@ -3630,15 +3773,15 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25">
         <v>45638.59</v>
       </c>
       <c r="D25">
-        <v>20132</v>
+        <v>12398</v>
       </c>
       <c r="E25">
         <v>3382.32</v>
@@ -3753,17 +3896,15 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26">
         <v>46718.559999999998</v>
       </c>
       <c r="D26">
-        <v>21793</v>
+        <v>12713</v>
       </c>
       <c r="E26">
         <v>3615.24</v>
@@ -3878,15 +4019,15 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27">
         <v>16850.349999999999</v>
       </c>
       <c r="D27">
-        <v>7963</v>
+        <v>4501</v>
       </c>
       <c r="E27">
         <v>1227.96</v>
@@ -4001,15 +4142,15 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28">
         <v>16951.12</v>
       </c>
       <c r="D28">
-        <v>8136</v>
+        <v>4551</v>
       </c>
       <c r="E28">
         <v>1251.48</v>
@@ -4124,15 +4265,15 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29">
         <v>44350.67</v>
       </c>
       <c r="D29">
-        <v>20898</v>
+        <v>11356</v>
       </c>
       <c r="E29">
         <v>3293.28</v>
@@ -4247,15 +4388,15 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30">
         <v>56501.96</v>
       </c>
       <c r="D30">
-        <v>27243</v>
+        <v>14963</v>
       </c>
       <c r="E30">
         <v>4262.82</v>
@@ -4370,15 +4511,15 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31">
         <v>54091.99</v>
       </c>
       <c r="D31">
-        <v>26190</v>
+        <v>14483</v>
       </c>
       <c r="E31">
         <v>4014.84</v>
@@ -4493,15 +4634,15 @@
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32">
         <v>57983.78</v>
       </c>
       <c r="D32">
-        <v>27333</v>
+        <v>15069</v>
       </c>
       <c r="E32">
         <v>4003.98</v>
@@ -4616,15 +4757,15 @@
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1">
-        <v>8</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33">
         <v>53018.61</v>
       </c>
       <c r="D33">
-        <v>25403</v>
+        <v>14051</v>
       </c>
       <c r="E33">
         <v>3760.08</v>
@@ -4739,15 +4880,15 @@
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5"/>
       <c r="C34">
         <v>45823.9</v>
       </c>
       <c r="D34">
-        <v>22505</v>
+        <v>12361</v>
       </c>
       <c r="E34">
         <v>3300.48</v>
@@ -4862,15 +5003,15 @@
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1">
-        <v>10</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35">
         <v>40733.89</v>
       </c>
       <c r="D35">
-        <v>21340</v>
+        <v>11578</v>
       </c>
       <c r="E35">
         <v>3064.68</v>
@@ -4985,15 +5126,15 @@
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1">
-        <v>11</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36">
         <v>35333.120000000003</v>
       </c>
       <c r="D36">
-        <v>18600</v>
+        <v>10308</v>
       </c>
       <c r="E36">
         <v>2740.2</v>
@@ -5108,15 +5249,15 @@
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1">
-        <v>12</v>
-      </c>
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37">
         <v>34961.919999999998</v>
       </c>
       <c r="D37">
-        <v>24013</v>
+        <v>9802</v>
       </c>
       <c r="E37">
         <v>2725.92</v>
@@ -5231,17 +5372,15 @@
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38">
         <v>37001.46</v>
       </c>
       <c r="D38">
-        <v>506499</v>
+        <v>9649</v>
       </c>
       <c r="E38">
         <v>3185.04</v>
@@ -5356,15 +5495,15 @@
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39">
         <v>43917.93</v>
       </c>
       <c r="D39">
-        <v>896985</v>
+        <v>10347</v>
       </c>
       <c r="E39">
         <v>3445.86</v>
@@ -5479,15 +5618,15 @@
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5"/>
       <c r="C40">
         <v>51368.3</v>
       </c>
       <c r="D40">
-        <v>593880</v>
+        <v>12311</v>
       </c>
       <c r="E40">
         <v>3940.02</v>
@@ -5602,15 +5741,15 @@
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5"/>
       <c r="C41">
         <v>47678.69</v>
       </c>
       <c r="D41">
-        <v>111916</v>
+        <v>12466</v>
       </c>
       <c r="E41">
         <v>3526.62</v>
@@ -5725,15 +5864,15 @@
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42">
         <v>31323.96</v>
       </c>
       <c r="D42">
-        <v>109433</v>
+        <v>7815</v>
       </c>
       <c r="E42">
         <v>2201.8200000000002</v>
@@ -5848,15 +5987,15 @@
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43">
         <v>9301.84</v>
       </c>
       <c r="D43">
-        <v>98458</v>
+        <v>2328</v>
       </c>
       <c r="E43">
         <v>702.72</v>
@@ -5971,15 +6110,15 @@
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1">
-        <v>7</v>
-      </c>
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44">
         <v>9288.8700000000008</v>
       </c>
       <c r="D44">
-        <v>103500</v>
+        <v>2364</v>
       </c>
       <c r="E44">
         <v>723.66</v>
@@ -6094,15 +6233,15 @@
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1">
-        <v>8</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45">
         <v>9537.5499999999993</v>
       </c>
       <c r="D45">
-        <v>105691</v>
+        <v>2357</v>
       </c>
       <c r="E45">
         <v>718.31999999999994</v>
@@ -6217,15 +6356,15 @@
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1">
-        <v>9</v>
-      </c>
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46">
         <v>9346.9</v>
       </c>
       <c r="D46">
-        <v>112317</v>
+        <v>2394</v>
       </c>
       <c r="E46">
         <v>735.84</v>
@@ -6340,15 +6479,15 @@
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1">
-        <v>10</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47">
         <v>9494.76</v>
       </c>
       <c r="D47">
-        <v>111600</v>
+        <v>2397</v>
       </c>
       <c r="E47">
         <v>731.88</v>
@@ -6463,15 +6602,15 @@
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1">
-        <v>11</v>
-      </c>
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48">
         <v>9500.51</v>
       </c>
       <c r="D48">
-        <v>113281</v>
+        <v>2335</v>
       </c>
       <c r="E48">
         <v>716.88</v>
@@ -6586,15 +6725,15 @@
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1">
-        <v>12</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49">
         <v>9586.3799999999992</v>
       </c>
       <c r="D49">
-        <v>118242</v>
+        <v>2381</v>
       </c>
       <c r="E49">
         <v>730.92</v>
@@ -6709,11 +6848,55 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
+  <mergeCells count="48">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6724,11 +6907,13 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6740,20 +6925,18 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2">
         <v>290</v>
       </c>
@@ -6762,10 +6945,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3">
         <v>289</v>
       </c>
@@ -6774,10 +6957,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4">
         <v>290</v>
       </c>
@@ -6786,10 +6969,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>289</v>
       </c>
@@ -6798,10 +6981,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6">
         <v>290</v>
       </c>
@@ -6810,10 +6993,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>286</v>
       </c>
@@ -6822,10 +7005,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>287</v>
       </c>
@@ -6834,10 +7017,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>282</v>
       </c>
@@ -6846,10 +7029,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10">
         <v>282</v>
       </c>
@@ -6858,10 +7041,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>283</v>
       </c>
@@ -6870,10 +7053,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>285</v>
       </c>
@@ -6882,10 +7065,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13">
         <v>286</v>
       </c>
@@ -6894,12 +7077,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <v>361</v>
       </c>
@@ -6908,10 +7089,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15">
         <v>364</v>
       </c>
@@ -6920,10 +7101,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16">
         <v>361</v>
       </c>
@@ -6932,10 +7113,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17">
         <v>360</v>
       </c>
@@ -6944,10 +7125,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18">
         <v>359</v>
       </c>
@@ -6956,10 +7137,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19">
         <v>359</v>
       </c>
@@ -6968,10 +7149,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20">
         <v>359</v>
       </c>
@@ -6980,10 +7161,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21">
         <v>361</v>
       </c>
@@ -6992,10 +7173,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22">
         <v>355</v>
       </c>
@@ -7004,10 +7185,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23">
         <v>355</v>
       </c>
@@ -7016,10 +7197,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24">
         <v>357</v>
       </c>
@@ -7028,10 +7209,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25">
         <v>368</v>
       </c>
@@ -7040,12 +7221,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26">
         <v>365</v>
       </c>
@@ -7054,10 +7233,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27">
         <v>366</v>
       </c>
@@ -7066,10 +7245,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28">
         <v>361</v>
       </c>
@@ -7078,10 +7257,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29">
         <v>362</v>
       </c>
@@ -7090,10 +7269,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30">
         <v>362</v>
       </c>
@@ -7102,10 +7281,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31">
         <v>361</v>
       </c>
@@ -7114,10 +7293,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32">
         <v>363</v>
       </c>
@@ -7126,10 +7305,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1">
-        <v>8</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33">
         <v>360</v>
       </c>
@@ -7138,10 +7317,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5"/>
       <c r="C34">
         <v>359</v>
       </c>
@@ -7150,10 +7329,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1">
-        <v>10</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35">
         <v>357</v>
       </c>
@@ -7162,10 +7341,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1">
-        <v>11</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36">
         <v>360</v>
       </c>
@@ -7174,10 +7353,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1">
-        <v>12</v>
-      </c>
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37">
         <v>370</v>
       </c>
@@ -7186,12 +7365,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38">
         <v>305</v>
       </c>
@@ -7200,10 +7377,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39">
         <v>303</v>
       </c>
@@ -7212,10 +7389,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5"/>
       <c r="C40">
         <v>304</v>
       </c>
@@ -7224,10 +7401,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5"/>
       <c r="C41">
         <v>302</v>
       </c>
@@ -7236,10 +7413,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42">
         <v>307</v>
       </c>
@@ -7248,10 +7425,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43">
         <v>304</v>
       </c>
@@ -7260,10 +7437,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1">
-        <v>7</v>
-      </c>
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44">
         <v>302</v>
       </c>
@@ -7272,10 +7449,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1">
-        <v>8</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45">
         <v>298</v>
       </c>
@@ -7284,10 +7461,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1">
-        <v>9</v>
-      </c>
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46">
         <v>300</v>
       </c>
@@ -7296,10 +7473,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1">
-        <v>10</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47">
         <v>296</v>
       </c>
@@ -7308,10 +7485,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1">
-        <v>11</v>
-      </c>
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48">
         <v>295</v>
       </c>
@@ -7320,10 +7497,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1">
-        <v>12</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49">
         <v>297</v>
       </c>
@@ -7332,11 +7509,55 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
+  <mergeCells count="48">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7346,8 +7567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4263F81-9A52-4616-8557-A8BF8AFEB948}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:M1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7381,43 +7602,41 @@
       <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2">
         <v>10452.51</v>
       </c>
       <c r="D2">
-        <v>4480</v>
+        <v>2681</v>
       </c>
       <c r="E2">
         <f>Informazioni_generali!E2+Informazioni_generali!F2+Informazioni_generali!G2+Informazioni_generali!H2</f>
@@ -7456,15 +7675,15 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3">
         <v>8941.9500000000007</v>
       </c>
       <c r="D3">
-        <v>3915</v>
+        <v>2299</v>
       </c>
       <c r="E3">
         <f>Informazioni_generali!E3+Informazioni_generali!F3+Informazioni_generali!G3+Informazioni_generali!H3</f>
@@ -7503,15 +7722,15 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4">
         <v>8808.7999999999993</v>
       </c>
       <c r="D4">
-        <v>3806</v>
+        <v>2263</v>
       </c>
       <c r="E4">
         <f>Informazioni_generali!E4+Informazioni_generali!F4+Informazioni_generali!G4+Informazioni_generali!H4</f>
@@ -7550,15 +7769,15 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>8870.2099999999991</v>
       </c>
       <c r="D5">
-        <v>3805</v>
+        <v>2256</v>
       </c>
       <c r="E5">
         <f>Informazioni_generali!E5+Informazioni_generali!F5+Informazioni_generali!G5+Informazioni_generali!H5</f>
@@ -7597,15 +7816,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6">
         <v>27696.77</v>
       </c>
       <c r="D6">
-        <v>12412</v>
+        <v>7036</v>
       </c>
       <c r="E6">
         <f>Informazioni_generali!E6+Informazioni_generali!F6+Informazioni_generali!G6+Informazioni_generali!H6</f>
@@ -7644,15 +7863,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>41008.82</v>
       </c>
       <c r="D7">
-        <v>18092</v>
+        <v>10460</v>
       </c>
       <c r="E7">
         <f>Informazioni_generali!E7+Informazioni_generali!F7+Informazioni_generali!G7+Informazioni_generali!H7</f>
@@ -7691,15 +7910,15 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>47174.45</v>
       </c>
       <c r="D8">
-        <v>18889</v>
+        <v>11377</v>
       </c>
       <c r="E8">
         <f>Informazioni_generali!E8+Informazioni_generali!F8+Informazioni_generali!G8+Informazioni_generali!H8</f>
@@ -7738,15 +7957,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>49624.71</v>
       </c>
       <c r="D9">
-        <v>20595</v>
+        <v>12394</v>
       </c>
       <c r="E9">
         <f>Informazioni_generali!E9+Informazioni_generali!F9+Informazioni_generali!G9+Informazioni_generali!H9</f>
@@ -7785,15 +8004,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10">
         <v>40752.99</v>
       </c>
       <c r="D10">
-        <v>17854</v>
+        <v>10658</v>
       </c>
       <c r="E10">
         <f>Informazioni_generali!E10+Informazioni_generali!F10+Informazioni_generali!G10+Informazioni_generali!H10</f>
@@ -7832,15 +8051,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>8471.65</v>
       </c>
       <c r="D11">
-        <v>3808</v>
+        <v>2241</v>
       </c>
       <c r="E11">
         <f>Informazioni_generali!E11+Informazioni_generali!F11+Informazioni_generali!G11+Informazioni_generali!H11</f>
@@ -7879,15 +8098,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>9920.35</v>
       </c>
       <c r="D12">
-        <v>4472</v>
+        <v>2652</v>
       </c>
       <c r="E12">
         <f>Informazioni_generali!E12+Informazioni_generali!F12+Informazioni_generali!G12+Informazioni_generali!H12</f>
@@ -7926,15 +8145,15 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13">
         <v>27941.63</v>
       </c>
       <c r="D13">
-        <v>16826</v>
+        <v>9732</v>
       </c>
       <c r="E13">
         <f>Informazioni_generali!E13+Informazioni_generali!F13+Informazioni_generali!G13+Informazioni_generali!H13</f>
@@ -7973,17 +8192,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <v>37355.61</v>
       </c>
       <c r="D14">
-        <v>19976</v>
+        <v>11913</v>
       </c>
       <c r="E14">
         <f>Informazioni_generali!E14+Informazioni_generali!F14+Informazioni_generali!G14+Informazioni_generali!H14</f>
@@ -8022,15 +8239,15 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15">
         <v>38253.01</v>
       </c>
       <c r="D15">
-        <v>19592</v>
+        <v>11490</v>
       </c>
       <c r="E15">
         <f>Informazioni_generali!E15+Informazioni_generali!F15+Informazioni_generali!G15+Informazioni_generali!H15</f>
@@ -8069,15 +8286,15 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16">
         <v>41413.26</v>
       </c>
       <c r="D16">
-        <v>20549</v>
+        <v>11902</v>
       </c>
       <c r="E16">
         <f>Informazioni_generali!E16+Informazioni_generali!F16+Informazioni_generali!G16+Informazioni_generali!H16</f>
@@ -8116,15 +8333,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17">
         <v>47698.85</v>
       </c>
       <c r="D17">
-        <v>21434</v>
+        <v>12437</v>
       </c>
       <c r="E17">
         <f>Informazioni_generali!E17+Informazioni_generali!F17+Informazioni_generali!G17+Informazioni_generali!H17</f>
@@ -8163,15 +8380,15 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18">
         <v>54992.57</v>
       </c>
       <c r="D18">
-        <v>23008</v>
+        <v>13370</v>
       </c>
       <c r="E18">
         <f>Informazioni_generali!E18+Informazioni_generali!F18+Informazioni_generali!G18+Informazioni_generali!H18</f>
@@ -8210,15 +8427,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19">
         <v>55143.83</v>
       </c>
       <c r="D19">
-        <v>21321</v>
+        <v>13082</v>
       </c>
       <c r="E19">
         <f>Informazioni_generali!E19+Informazioni_generali!F19+Informazioni_generali!G19+Informazioni_generali!H19</f>
@@ -8257,15 +8474,15 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20">
         <v>62704.92</v>
       </c>
       <c r="D20">
-        <v>24393</v>
+        <v>14955</v>
       </c>
       <c r="E20">
         <f>Informazioni_generali!E20+Informazioni_generali!F20+Informazioni_generali!G20+Informazioni_generali!H20</f>
@@ -8304,15 +8521,15 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21">
         <v>61063.02</v>
       </c>
       <c r="D21">
-        <v>25956</v>
+        <v>15618</v>
       </c>
       <c r="E21">
         <f>Informazioni_generali!E21+Informazioni_generali!F21+Informazioni_generali!G21+Informazioni_generali!H21</f>
@@ -8351,15 +8568,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22">
         <v>53412</v>
       </c>
       <c r="D22">
-        <v>23502</v>
+        <v>14416</v>
       </c>
       <c r="E22">
         <f>Informazioni_generali!E22+Informazioni_generali!F22+Informazioni_generali!G22+Informazioni_generali!H22</f>
@@ -8398,15 +8615,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23">
         <v>20990.73</v>
       </c>
       <c r="D23">
-        <v>9690</v>
+        <v>5778</v>
       </c>
       <c r="E23">
         <f>Informazioni_generali!E23+Informazioni_generali!F23+Informazioni_generali!G23+Informazioni_generali!H23</f>
@@ -8445,15 +8662,15 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24">
         <v>45300.800000000003</v>
       </c>
       <c r="D24">
-        <v>19789</v>
+        <v>12365</v>
       </c>
       <c r="E24">
         <f>Informazioni_generali!E24+Informazioni_generali!F24+Informazioni_generali!G24+Informazioni_generali!H24</f>
@@ -8492,15 +8709,15 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25">
         <v>45638.59</v>
       </c>
       <c r="D25">
-        <v>20132</v>
+        <v>12398</v>
       </c>
       <c r="E25">
         <f>Informazioni_generali!E25+Informazioni_generali!F25+Informazioni_generali!G25+Informazioni_generali!H25</f>
@@ -8539,17 +8756,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26">
         <v>46718.559999999998</v>
       </c>
       <c r="D26">
-        <v>21793</v>
+        <v>12713</v>
       </c>
       <c r="E26">
         <f>Informazioni_generali!E26+Informazioni_generali!F26+Informazioni_generali!G26+Informazioni_generali!H26</f>
@@ -8588,15 +8803,15 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27">
         <v>16850.349999999999</v>
       </c>
       <c r="D27">
-        <v>7963</v>
+        <v>4501</v>
       </c>
       <c r="E27">
         <f>Informazioni_generali!E27+Informazioni_generali!F27+Informazioni_generali!G27+Informazioni_generali!H27</f>
@@ -8635,15 +8850,15 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28">
         <v>16951.12</v>
       </c>
       <c r="D28">
-        <v>8136</v>
+        <v>4551</v>
       </c>
       <c r="E28">
         <f>Informazioni_generali!E28+Informazioni_generali!F28+Informazioni_generali!G28+Informazioni_generali!H28</f>
@@ -8682,15 +8897,15 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29">
         <v>44350.67</v>
       </c>
       <c r="D29">
-        <v>20898</v>
+        <v>11356</v>
       </c>
       <c r="E29">
         <f>Informazioni_generali!E29+Informazioni_generali!F29+Informazioni_generali!G29+Informazioni_generali!H29</f>
@@ -8729,15 +8944,15 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30">
         <v>56501.96</v>
       </c>
       <c r="D30">
-        <v>27243</v>
+        <v>14963</v>
       </c>
       <c r="E30">
         <f>Informazioni_generali!E30+Informazioni_generali!F30+Informazioni_generali!G30+Informazioni_generali!H30</f>
@@ -8776,15 +8991,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31">
         <v>54091.99</v>
       </c>
       <c r="D31">
-        <v>26190</v>
+        <v>14483</v>
       </c>
       <c r="E31">
         <f>Informazioni_generali!E31+Informazioni_generali!F31+Informazioni_generali!G31+Informazioni_generali!H31</f>
@@ -8823,15 +9038,15 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32">
         <v>57983.78</v>
       </c>
       <c r="D32">
-        <v>27333</v>
+        <v>15069</v>
       </c>
       <c r="E32">
         <f>Informazioni_generali!E32+Informazioni_generali!F32+Informazioni_generali!G32+Informazioni_generali!H32</f>
@@ -8870,15 +9085,15 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1">
-        <v>8</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33">
         <v>53018.61</v>
       </c>
       <c r="D33">
-        <v>25403</v>
+        <v>14051</v>
       </c>
       <c r="E33">
         <f>Informazioni_generali!E33+Informazioni_generali!F33+Informazioni_generali!G33+Informazioni_generali!H33</f>
@@ -8917,15 +9132,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5"/>
       <c r="C34">
         <v>45823.9</v>
       </c>
       <c r="D34">
-        <v>22505</v>
+        <v>12361</v>
       </c>
       <c r="E34">
         <f>Informazioni_generali!E34+Informazioni_generali!F34+Informazioni_generali!G34+Informazioni_generali!H34</f>
@@ -8964,15 +9179,15 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1">
-        <v>10</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35">
         <v>40733.89</v>
       </c>
       <c r="D35">
-        <v>21340</v>
+        <v>11578</v>
       </c>
       <c r="E35">
         <f>Informazioni_generali!E35+Informazioni_generali!F35+Informazioni_generali!G35+Informazioni_generali!H35</f>
@@ -9011,15 +9226,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1">
-        <v>11</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36">
         <v>35333.120000000003</v>
       </c>
       <c r="D36">
-        <v>18600</v>
+        <v>10308</v>
       </c>
       <c r="E36">
         <f>Informazioni_generali!E36+Informazioni_generali!F36+Informazioni_generali!G36+Informazioni_generali!H36</f>
@@ -9058,15 +9273,15 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1">
-        <v>12</v>
-      </c>
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37">
         <v>34961.919999999998</v>
       </c>
       <c r="D37">
-        <v>24013</v>
+        <v>9802</v>
       </c>
       <c r="E37">
         <f>Informazioni_generali!E37+Informazioni_generali!F37+Informazioni_generali!G37+Informazioni_generali!H37</f>
@@ -9105,17 +9320,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38">
         <v>37001.46</v>
       </c>
       <c r="D38">
-        <v>506499</v>
+        <v>9649</v>
       </c>
       <c r="E38">
         <f>Informazioni_generali!E38+Informazioni_generali!F38+Informazioni_generali!G38+Informazioni_generali!H38</f>
@@ -9154,15 +9367,15 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39">
         <v>43917.93</v>
       </c>
       <c r="D39">
-        <v>896985</v>
+        <v>10347</v>
       </c>
       <c r="E39">
         <f>Informazioni_generali!E39+Informazioni_generali!F39+Informazioni_generali!G39+Informazioni_generali!H39</f>
@@ -9201,15 +9414,15 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5"/>
       <c r="C40">
         <v>51368.3</v>
       </c>
       <c r="D40">
-        <v>593880</v>
+        <v>12311</v>
       </c>
       <c r="E40">
         <f>Informazioni_generali!E40+Informazioni_generali!F40+Informazioni_generali!G40+Informazioni_generali!H40</f>
@@ -9248,15 +9461,15 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5"/>
       <c r="C41">
         <v>47678.69</v>
       </c>
       <c r="D41">
-        <v>111916</v>
+        <v>12466</v>
       </c>
       <c r="E41">
         <f>Informazioni_generali!E41+Informazioni_generali!F41+Informazioni_generali!G41+Informazioni_generali!H41</f>
@@ -9295,15 +9508,15 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42">
         <v>31323.96</v>
       </c>
       <c r="D42">
-        <v>109433</v>
+        <v>7815</v>
       </c>
       <c r="E42">
         <f>Informazioni_generali!E42+Informazioni_generali!F42+Informazioni_generali!G42+Informazioni_generali!H42</f>
@@ -9342,15 +9555,15 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43">
         <v>9301.84</v>
       </c>
       <c r="D43">
-        <v>98458</v>
+        <v>2328</v>
       </c>
       <c r="E43">
         <f>Informazioni_generali!E43+Informazioni_generali!F43+Informazioni_generali!G43+Informazioni_generali!H43</f>
@@ -9389,15 +9602,15 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1">
-        <v>7</v>
-      </c>
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44">
         <v>9288.8700000000008</v>
       </c>
       <c r="D44">
-        <v>103500</v>
+        <v>2364</v>
       </c>
       <c r="E44">
         <f>Informazioni_generali!E44+Informazioni_generali!F44+Informazioni_generali!G44+Informazioni_generali!H44</f>
@@ -9436,15 +9649,15 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1">
-        <v>8</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45">
         <v>9537.5499999999993</v>
       </c>
       <c r="D45">
-        <v>105691</v>
+        <v>2357</v>
       </c>
       <c r="E45">
         <f>Informazioni_generali!E45+Informazioni_generali!F45+Informazioni_generali!G45+Informazioni_generali!H45</f>
@@ -9483,15 +9696,15 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1">
-        <v>9</v>
-      </c>
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46">
         <v>9346.9</v>
       </c>
       <c r="D46">
-        <v>112317</v>
+        <v>2394</v>
       </c>
       <c r="E46">
         <f>Informazioni_generali!E46+Informazioni_generali!F46+Informazioni_generali!G46+Informazioni_generali!H46</f>
@@ -9530,15 +9743,15 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1">
-        <v>10</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47">
         <v>9494.76</v>
       </c>
       <c r="D47">
-        <v>111600</v>
+        <v>2397</v>
       </c>
       <c r="E47">
         <f>Informazioni_generali!E47+Informazioni_generali!F47+Informazioni_generali!G47+Informazioni_generali!H47</f>
@@ -9577,15 +9790,15 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1">
-        <v>11</v>
-      </c>
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48">
         <v>9500.51</v>
       </c>
       <c r="D48">
-        <v>113281</v>
+        <v>2335</v>
       </c>
       <c r="E48">
         <f>Informazioni_generali!E48+Informazioni_generali!F48+Informazioni_generali!G48+Informazioni_generali!H48</f>
@@ -9624,15 +9837,15 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1">
-        <v>12</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49">
         <v>9586.3799999999992</v>
       </c>
       <c r="D49">
-        <v>118242</v>
+        <v>2381</v>
       </c>
       <c r="E49">
         <f>Informazioni_generali!E49+Informazioni_generali!F49+Informazioni_generali!G49+Informazioni_generali!H49</f>
@@ -9671,11 +9884,55 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
+  <mergeCells count="48">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9686,15 +9943,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240FDB45-F4B2-4D36-B1BA-93E68FA64090}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:M49"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -9725,40 +9983,38 @@
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2">
         <v>10452.51</v>
       </c>
       <c r="D2">
-        <v>4480</v>
+        <v>2681</v>
       </c>
       <c r="E2">
         <v>21657.083333333328</v>
@@ -9789,15 +10045,15 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3">
         <v>8941.9500000000007</v>
       </c>
       <c r="D3">
-        <v>3915</v>
+        <v>2299</v>
       </c>
       <c r="E3">
         <v>18171.150000000001</v>
@@ -9828,15 +10084,15 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4">
         <v>8808.7999999999993</v>
       </c>
       <c r="D4">
-        <v>3806</v>
+        <v>2263</v>
       </c>
       <c r="E4">
         <v>18257.366666666661</v>
@@ -9867,15 +10123,15 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>8870.2099999999991</v>
       </c>
       <c r="D5">
-        <v>3805</v>
+        <v>2256</v>
       </c>
       <c r="E5">
         <v>17369.616666666661</v>
@@ -9906,15 +10162,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6">
         <v>27696.77</v>
       </c>
       <c r="D6">
-        <v>12412</v>
+        <v>7036</v>
       </c>
       <c r="E6">
         <v>53716.866666666669</v>
@@ -9945,15 +10201,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>41008.82</v>
       </c>
       <c r="D7">
-        <v>18092</v>
+        <v>10460</v>
       </c>
       <c r="E7">
         <v>82181.100000000006</v>
@@ -9984,15 +10240,15 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>47174.45</v>
       </c>
       <c r="D8">
-        <v>18889</v>
+        <v>11377</v>
       </c>
       <c r="E8">
         <v>88378.083333333328</v>
@@ -10023,15 +10279,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>49624.71</v>
       </c>
       <c r="D9">
-        <v>20595</v>
+        <v>12394</v>
       </c>
       <c r="E9">
         <v>97935.616666666669</v>
@@ -10062,15 +10318,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10">
         <v>40752.99</v>
       </c>
       <c r="D10">
-        <v>17854</v>
+        <v>10658</v>
       </c>
       <c r="E10">
         <v>84410.55</v>
@@ -10101,15 +10357,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>8471.65</v>
       </c>
       <c r="D11">
-        <v>3808</v>
+        <v>2241</v>
       </c>
       <c r="E11">
         <v>17830.916666666672</v>
@@ -10140,15 +10396,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>9920.35</v>
       </c>
       <c r="D12">
-        <v>4472</v>
+        <v>2652</v>
       </c>
       <c r="E12">
         <v>20828.683333333331</v>
@@ -10179,15 +10435,15 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13">
         <v>27941.63</v>
       </c>
       <c r="D13">
-        <v>16826</v>
+        <v>9732</v>
       </c>
       <c r="E13">
         <v>77051.95</v>
@@ -10218,17 +10474,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <v>37355.61</v>
       </c>
       <c r="D14">
-        <v>19976</v>
+        <v>11913</v>
       </c>
       <c r="E14">
         <v>93535.53333333334</v>
@@ -10259,15 +10513,15 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15">
         <v>38253.01</v>
       </c>
       <c r="D15">
-        <v>19592</v>
+        <v>11490</v>
       </c>
       <c r="E15">
         <v>89213.85</v>
@@ -10298,15 +10552,15 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16">
         <v>41413.26</v>
       </c>
       <c r="D16">
-        <v>20549</v>
+        <v>11902</v>
       </c>
       <c r="E16">
         <v>92768.78333333334</v>
@@ -10337,15 +10591,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17">
         <v>47698.85</v>
       </c>
       <c r="D17">
-        <v>21434</v>
+        <v>12437</v>
       </c>
       <c r="E17">
         <v>96725.9</v>
@@ -10376,15 +10630,15 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18">
         <v>54992.57</v>
       </c>
       <c r="D18">
-        <v>23008</v>
+        <v>13370</v>
       </c>
       <c r="E18">
         <v>107628.6</v>
@@ -10415,15 +10669,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19">
         <v>55143.83</v>
       </c>
       <c r="D19">
-        <v>21321</v>
+        <v>13082</v>
       </c>
       <c r="E19">
         <v>102834.5</v>
@@ -10454,15 +10708,15 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20">
         <v>62704.92</v>
       </c>
       <c r="D20">
-        <v>24393</v>
+        <v>14955</v>
       </c>
       <c r="E20">
         <v>109765.8833333333</v>
@@ -10493,15 +10747,15 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21">
         <v>61063.02</v>
       </c>
       <c r="D21">
-        <v>25956</v>
+        <v>15618</v>
       </c>
       <c r="E21">
         <v>112582.1166666667</v>
@@ -10532,15 +10786,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22">
         <v>53412</v>
       </c>
       <c r="D22">
-        <v>23502</v>
+        <v>14416</v>
       </c>
       <c r="E22">
         <v>106283.0333333333</v>
@@ -10571,15 +10825,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23">
         <v>20990.73</v>
       </c>
       <c r="D23">
-        <v>9690</v>
+        <v>5778</v>
       </c>
       <c r="E23">
         <v>44098.466666666667</v>
@@ -10610,15 +10864,15 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24">
         <v>45300.800000000003</v>
       </c>
       <c r="D24">
-        <v>19789</v>
+        <v>12365</v>
       </c>
       <c r="E24">
         <v>90040.883333333331</v>
@@ -10649,15 +10903,15 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25">
         <v>45638.59</v>
       </c>
       <c r="D25">
-        <v>20132</v>
+        <v>12398</v>
       </c>
       <c r="E25">
         <v>88910.183333333334</v>
@@ -10688,17 +10942,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26">
         <v>46718.559999999998</v>
       </c>
       <c r="D26">
-        <v>21793</v>
+        <v>12713</v>
       </c>
       <c r="E26">
         <v>87592.7</v>
@@ -10729,15 +10981,15 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27">
         <v>16850.349999999999</v>
       </c>
       <c r="D27">
-        <v>7963</v>
+        <v>4501</v>
       </c>
       <c r="E27">
         <v>30579.9</v>
@@ -10768,15 +11020,15 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28">
         <v>16951.12</v>
       </c>
       <c r="D28">
-        <v>8136</v>
+        <v>4551</v>
       </c>
       <c r="E28">
         <v>30544.833333333328</v>
@@ -10807,15 +11059,15 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29">
         <v>44350.67</v>
       </c>
       <c r="D29">
-        <v>20898</v>
+        <v>11356</v>
       </c>
       <c r="E29">
         <v>75977.233333333337</v>
@@ -10846,15 +11098,15 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30">
         <v>56501.96</v>
       </c>
       <c r="D30">
-        <v>27243</v>
+        <v>14963</v>
       </c>
       <c r="E30">
         <v>100652.7</v>
@@ -10885,15 +11137,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31">
         <v>54091.99</v>
       </c>
       <c r="D31">
-        <v>26190</v>
+        <v>14483</v>
       </c>
       <c r="E31">
         <v>97605.866666666669</v>
@@ -10924,15 +11176,15 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32">
         <v>57983.78</v>
       </c>
       <c r="D32">
-        <v>27333</v>
+        <v>15069</v>
       </c>
       <c r="E32">
         <v>101771.9666666667</v>
@@ -10963,15 +11215,15 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1">
-        <v>8</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33">
         <v>53018.61</v>
       </c>
       <c r="D33">
-        <v>25403</v>
+        <v>14051</v>
       </c>
       <c r="E33">
         <v>93950.333333333328</v>
@@ -11002,15 +11254,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5"/>
       <c r="C34">
         <v>45823.9</v>
       </c>
       <c r="D34">
-        <v>22505</v>
+        <v>12361</v>
       </c>
       <c r="E34">
         <v>84163.78333333334</v>
@@ -11041,15 +11293,15 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1">
-        <v>10</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35">
         <v>40733.89</v>
       </c>
       <c r="D35">
-        <v>21340</v>
+        <v>11578</v>
       </c>
       <c r="E35">
         <v>77454.233333333337</v>
@@ -11080,15 +11332,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1">
-        <v>11</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36">
         <v>35333.120000000003</v>
       </c>
       <c r="D36">
-        <v>18600</v>
+        <v>10308</v>
       </c>
       <c r="E36">
         <v>70088.03333333334</v>
@@ -11119,15 +11371,15 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1">
-        <v>12</v>
-      </c>
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37">
         <v>34961.919999999998</v>
       </c>
       <c r="D37">
-        <v>24013</v>
+        <v>9802</v>
       </c>
       <c r="E37">
         <v>64946.333333333343</v>
@@ -11158,17 +11410,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38">
         <v>37001.46</v>
       </c>
       <c r="D38">
-        <v>506499</v>
+        <v>9649</v>
       </c>
       <c r="E38">
         <v>62548.55</v>
@@ -11199,15 +11449,15 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39">
         <v>43917.93</v>
       </c>
       <c r="D39">
-        <v>896985</v>
+        <v>10347</v>
       </c>
       <c r="E39">
         <v>68437.566666666666</v>
@@ -11238,15 +11488,15 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5"/>
       <c r="C40">
         <v>51368.3</v>
       </c>
       <c r="D40">
-        <v>593880</v>
+        <v>12311</v>
       </c>
       <c r="E40">
         <v>82593.583333333328</v>
@@ -11277,15 +11527,15 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5"/>
       <c r="C41">
         <v>47678.69</v>
       </c>
       <c r="D41">
-        <v>111916</v>
+        <v>12466</v>
       </c>
       <c r="E41">
         <v>85093.983333333337</v>
@@ -11316,15 +11566,15 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42">
         <v>31323.96</v>
       </c>
       <c r="D42">
-        <v>109433</v>
+        <v>7815</v>
       </c>
       <c r="E42">
         <v>54187.633333333331</v>
@@ -11355,15 +11605,15 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43">
         <v>9301.84</v>
       </c>
       <c r="D43">
-        <v>98458</v>
+        <v>2328</v>
       </c>
       <c r="E43">
         <v>15692.4</v>
@@ -11394,15 +11644,15 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1">
-        <v>7</v>
-      </c>
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44">
         <v>9288.8700000000008</v>
       </c>
       <c r="D44">
-        <v>103500</v>
+        <v>2364</v>
       </c>
       <c r="E44">
         <v>15848.48333333333</v>
@@ -11433,15 +11683,15 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1">
-        <v>8</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45">
         <v>9537.5499999999993</v>
       </c>
       <c r="D45">
-        <v>105691</v>
+        <v>2357</v>
       </c>
       <c r="E45">
         <v>16017.63333333333</v>
@@ -11472,15 +11722,15 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1">
-        <v>9</v>
-      </c>
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46">
         <v>9346.9</v>
       </c>
       <c r="D46">
-        <v>112317</v>
+        <v>2394</v>
       </c>
       <c r="E46">
         <v>16066.61666666667</v>
@@ -11511,15 +11761,15 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1">
-        <v>10</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47">
         <v>9494.76</v>
       </c>
       <c r="D47">
-        <v>111600</v>
+        <v>2397</v>
       </c>
       <c r="E47">
         <v>15834.58333333333</v>
@@ -11550,15 +11800,15 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1">
-        <v>11</v>
-      </c>
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48">
         <v>9500.51</v>
       </c>
       <c r="D48">
-        <v>113281</v>
+        <v>2335</v>
       </c>
       <c r="E48">
         <v>15716.33333333333</v>
@@ -11589,15 +11839,15 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1">
-        <v>12</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49">
         <v>9586.3799999999992</v>
       </c>
       <c r="D49">
-        <v>118242</v>
+        <v>2381</v>
       </c>
       <c r="E49">
         <v>15957.816666666669</v>
@@ -11628,11 +11878,55 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
+  <mergeCells count="48">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11642,8 +11936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B673CF2D-9772-4E5D-95CC-44DB8F1A655B}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11682,42 +11976,40 @@
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2">
         <f>buffer!C2/'Mungiture totali'!C2</f>
         <v>36.043137931034487</v>
       </c>
       <c r="D2">
         <f>buffer!D2/'Mungiture totali'!C2</f>
-        <v>15.448275862068966</v>
+        <v>9.2448275862068972</v>
       </c>
       <c r="E2">
         <f>buffer!E2/'Mungiture totali'!C2</f>
@@ -11757,1897 +12049,2405 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3">
         <f>buffer!C3/'Mungiture totali'!C3</f>
         <v>30.941003460207614</v>
       </c>
       <c r="D3">
-        <v>3915</v>
+        <f>buffer!D3/'Mungiture totali'!C3</f>
+        <v>7.9550173010380627</v>
       </c>
       <c r="E3">
-        <v>18171.150000000001</v>
+        <f>buffer!E3/'Mungiture totali'!C3</f>
+        <v>62.87595155709343</v>
       </c>
       <c r="F3">
-        <v>2995.3799999999997</v>
+        <f>buffer!F3/'Mungiture totali'!C3</f>
+        <v>10.364636678200691</v>
       </c>
       <c r="G3">
-        <v>89685</v>
+        <f>buffer!G3/'Mungiture totali'!C3</f>
+        <v>310.32871972318338</v>
       </c>
       <c r="H3">
-        <v>21915.63</v>
+        <f>buffer!H3/'Mungiture totali'!C3</f>
+        <v>75.832629757785469</v>
       </c>
       <c r="I3">
-        <v>5972.7800000000007</v>
+        <f>buffer!I3/'Mungiture totali'!C3</f>
+        <v>20.667058823529413</v>
       </c>
       <c r="J3">
-        <v>8944.2900000000009</v>
+        <f>buffer!J3/'Mungiture totali'!C3</f>
+        <v>30.949100346020764</v>
       </c>
       <c r="K3">
-        <v>140</v>
+        <f>buffer!K3/'Mungiture totali'!C3</f>
+        <v>0.48442906574394462</v>
       </c>
       <c r="L3">
-        <v>143</v>
+        <f>buffer!L3/'Mungiture totali'!C3</f>
+        <v>0.49480968858131485</v>
       </c>
       <c r="M3">
-        <v>971</v>
+        <f>buffer!M3/'Mungiture totali'!C3</f>
+        <v>3.3598615916955019</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4">
         <f>buffer!C4/'Mungiture totali'!C4</f>
         <v>30.375172413793102</v>
       </c>
       <c r="D4">
-        <v>3806</v>
+        <f>buffer!D4/'Mungiture totali'!C4</f>
+        <v>7.8034482758620687</v>
       </c>
       <c r="E4">
-        <v>18257.366666666661</v>
+        <f>buffer!E4/'Mungiture totali'!C4</f>
+        <v>62.956436781609177</v>
       </c>
       <c r="F4">
-        <v>2953.4400000000005</v>
+        <f>buffer!F4/'Mungiture totali'!C4</f>
+        <v>10.184275862068967</v>
       </c>
       <c r="G4">
-        <v>72578</v>
+        <f>buffer!G4/'Mungiture totali'!C4</f>
+        <v>250.26896551724138</v>
       </c>
       <c r="H4">
-        <v>21358.83</v>
+        <f>buffer!H4/'Mungiture totali'!C4</f>
+        <v>73.651137931034484</v>
       </c>
       <c r="I4">
-        <v>5916.9500000000007</v>
+        <f>buffer!I4/'Mungiture totali'!C4</f>
+        <v>20.403275862068966</v>
       </c>
       <c r="J4">
-        <v>8811.19</v>
+        <f>buffer!J4/'Mungiture totali'!C4</f>
+        <v>30.38341379310345</v>
       </c>
       <c r="K4">
-        <v>133</v>
+        <f>buffer!K4/'Mungiture totali'!C4</f>
+        <v>0.45862068965517239</v>
       </c>
       <c r="L4">
-        <v>191</v>
+        <f>buffer!L4/'Mungiture totali'!C4</f>
+        <v>0.6586206896551724</v>
       </c>
       <c r="M4">
-        <v>991</v>
+        <f>buffer!M4/'Mungiture totali'!C4</f>
+        <v>3.4172413793103447</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5">
         <f>buffer!C5/'Mungiture totali'!C5</f>
         <v>30.692768166089962</v>
       </c>
       <c r="D5">
-        <v>3805</v>
+        <f>buffer!D5/'Mungiture totali'!C5</f>
+        <v>7.8062283737024218</v>
       </c>
       <c r="E5">
-        <v>17369.616666666661</v>
+        <f>buffer!E5/'Mungiture totali'!C5</f>
+        <v>60.102479815455574</v>
       </c>
       <c r="F5">
-        <v>2966.64</v>
+        <f>buffer!F5/'Mungiture totali'!C5</f>
+        <v>10.265190311418685</v>
       </c>
       <c r="G5">
-        <v>71696</v>
+        <f>buffer!G5/'Mungiture totali'!C5</f>
+        <v>248.08304498269896</v>
       </c>
       <c r="H5">
-        <v>21196.7</v>
+        <f>buffer!H5/'Mungiture totali'!C5</f>
+        <v>73.344982698961942</v>
       </c>
       <c r="I5">
-        <v>5885.67</v>
+        <f>buffer!I5/'Mungiture totali'!C5</f>
+        <v>20.365640138408306</v>
       </c>
       <c r="J5">
-        <v>8872.42</v>
+        <f>buffer!J5/'Mungiture totali'!C5</f>
+        <v>30.700415224913495</v>
       </c>
       <c r="K5">
-        <v>135</v>
+        <f>buffer!K5/'Mungiture totali'!C5</f>
+        <v>0.4671280276816609</v>
       </c>
       <c r="L5">
-        <v>158</v>
+        <f>buffer!L5/'Mungiture totali'!C5</f>
+        <v>0.54671280276816614</v>
       </c>
       <c r="M5">
-        <v>946</v>
+        <f>buffer!M5/'Mungiture totali'!C5</f>
+        <v>3.273356401384083</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6">
         <f>buffer!C6/'Mungiture totali'!C6</f>
         <v>95.506103448275866</v>
       </c>
       <c r="D6">
-        <v>12412</v>
+        <f>buffer!D6/'Mungiture totali'!C6</f>
+        <v>24.262068965517241</v>
       </c>
       <c r="E6">
-        <v>53716.866666666669</v>
+        <f>buffer!E6/'Mungiture totali'!C6</f>
+        <v>185.23057471264369</v>
       </c>
       <c r="F6">
-        <v>9430.24</v>
+        <f>buffer!F6/'Mungiture totali'!C6</f>
+        <v>32.518068965517237</v>
       </c>
       <c r="G6">
-        <v>352067</v>
+        <f>buffer!G6/'Mungiture totali'!C6</f>
+        <v>1214.0241379310344</v>
       </c>
       <c r="H6">
-        <v>67055.69</v>
+        <f>buffer!H6/'Mungiture totali'!C6</f>
+        <v>231.22651724137933</v>
       </c>
       <c r="I6">
-        <v>18759.04</v>
+        <f>buffer!I6/'Mungiture totali'!C6</f>
+        <v>64.686344827586211</v>
       </c>
       <c r="J6">
-        <v>27710.11</v>
+        <f>buffer!J6/'Mungiture totali'!C6</f>
+        <v>95.552103448275858</v>
       </c>
       <c r="K6">
-        <v>443</v>
+        <f>buffer!K6/'Mungiture totali'!C6</f>
+        <v>1.5275862068965518</v>
       </c>
       <c r="L6">
-        <v>538</v>
+        <f>buffer!L6/'Mungiture totali'!C6</f>
+        <v>1.8551724137931034</v>
       </c>
       <c r="M6">
-        <v>2696</v>
+        <f>buffer!M6/'Mungiture totali'!C6</f>
+        <v>9.296551724137931</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <f>buffer!C7/'Mungiture totali'!C7</f>
         <v>143.38748251748251</v>
       </c>
       <c r="D7">
-        <v>18092</v>
+        <f>buffer!D7/'Mungiture totali'!C7</f>
+        <v>36.573426573426573</v>
       </c>
       <c r="E7">
-        <v>82181.100000000006</v>
+        <f>buffer!E7/'Mungiture totali'!C7</f>
+        <v>287.34650349650354</v>
       </c>
       <c r="F7">
-        <v>13584.579999999998</v>
+        <f>buffer!F7/'Mungiture totali'!C7</f>
+        <v>47.498531468531461</v>
       </c>
       <c r="G7">
-        <v>266447</v>
+        <f>buffer!G7/'Mungiture totali'!C7</f>
+        <v>931.63286713286709</v>
       </c>
       <c r="H7">
-        <v>102174.02</v>
+        <f>buffer!H7/'Mungiture totali'!C7</f>
+        <v>357.25181818181818</v>
       </c>
       <c r="I7">
-        <v>27379.85</v>
+        <f>buffer!I7/'Mungiture totali'!C7</f>
+        <v>95.733741258741247</v>
       </c>
       <c r="J7">
-        <v>41031.009999999995</v>
+        <f>buffer!J7/'Mungiture totali'!C7</f>
+        <v>143.46506993006992</v>
       </c>
       <c r="K7">
-        <v>605</v>
+        <f>buffer!K7/'Mungiture totali'!C7</f>
+        <v>2.1153846153846154</v>
       </c>
       <c r="L7">
-        <v>712</v>
+        <f>buffer!L7/'Mungiture totali'!C7</f>
+        <v>2.4895104895104896</v>
       </c>
       <c r="M7">
-        <v>3896</v>
+        <f>buffer!M7/'Mungiture totali'!C7</f>
+        <v>13.622377622377622</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
         <f>buffer!C8/'Mungiture totali'!C8</f>
         <v>164.37090592334494</v>
       </c>
       <c r="D8">
-        <v>18889</v>
+        <f>buffer!D8/'Mungiture totali'!C8</f>
+        <v>39.641114982578394</v>
       </c>
       <c r="E8">
-        <v>88378.083333333328</v>
+        <f>buffer!E8/'Mungiture totali'!C8</f>
+        <v>307.9375725900116</v>
       </c>
       <c r="F8">
-        <v>15422.999999999996</v>
+        <f>buffer!F8/'Mungiture totali'!C8</f>
+        <v>53.738675958188139</v>
       </c>
       <c r="G8">
-        <v>572605</v>
+        <f>buffer!G8/'Mungiture totali'!C8</f>
+        <v>1995.1393728222997</v>
       </c>
       <c r="H8">
-        <v>115203.13999999998</v>
+        <f>buffer!H8/'Mungiture totali'!C8</f>
+        <v>401.40466898954696</v>
       </c>
       <c r="I8">
-        <v>30733.550000000003</v>
+        <f>buffer!I8/'Mungiture totali'!C8</f>
+        <v>107.08554006968642</v>
       </c>
       <c r="J8">
-        <v>47200.74</v>
+        <f>buffer!J8/'Mungiture totali'!C8</f>
+        <v>164.46250871080139</v>
       </c>
       <c r="K8">
-        <v>635</v>
+        <f>buffer!K8/'Mungiture totali'!C8</f>
+        <v>2.2125435540069684</v>
       </c>
       <c r="L8">
-        <v>667</v>
+        <f>buffer!L8/'Mungiture totali'!C8</f>
+        <v>2.3240418118466897</v>
       </c>
       <c r="M8">
-        <v>3756</v>
+        <f>buffer!M8/'Mungiture totali'!C8</f>
+        <v>13.087108013937282</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <f>buffer!C9/'Mungiture totali'!C9</f>
         <v>175.97414893617022</v>
       </c>
       <c r="D9">
-        <v>20595</v>
+        <f>buffer!D9/'Mungiture totali'!C9</f>
+        <v>43.950354609929079</v>
       </c>
       <c r="E9">
-        <v>97935.616666666669</v>
+        <f>buffer!E9/'Mungiture totali'!C9</f>
+        <v>347.28942080378249</v>
       </c>
       <c r="F9">
-        <v>16122.380000000001</v>
+        <f>buffer!F9/'Mungiture totali'!C9</f>
+        <v>57.171560283687946</v>
       </c>
       <c r="G9">
-        <v>622527</v>
+        <f>buffer!G9/'Mungiture totali'!C9</f>
+        <v>2207.5425531914893</v>
       </c>
       <c r="H9">
-        <v>120857.49</v>
+        <f>buffer!H9/'Mungiture totali'!C9</f>
+        <v>428.5726595744681</v>
       </c>
       <c r="I9">
-        <v>32794.89</v>
+        <f>buffer!I9/'Mungiture totali'!C9</f>
+        <v>116.29393617021276</v>
       </c>
       <c r="J9">
-        <v>49668.770000000004</v>
+        <f>buffer!J9/'Mungiture totali'!C9</f>
+        <v>176.130390070922</v>
       </c>
       <c r="K9">
-        <v>726</v>
+        <f>buffer!K9/'Mungiture totali'!C9</f>
+        <v>2.5744680851063828</v>
       </c>
       <c r="L9">
-        <v>858</v>
+        <f>buffer!L9/'Mungiture totali'!C9</f>
+        <v>3.0425531914893615</v>
       </c>
       <c r="M9">
-        <v>4368</v>
+        <f>buffer!M9/'Mungiture totali'!C9</f>
+        <v>15.48936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10">
         <f>buffer!C10/'Mungiture totali'!C10</f>
         <v>144.51414893617022</v>
       </c>
       <c r="D10">
-        <v>17854</v>
+        <f>buffer!D10/'Mungiture totali'!C10</f>
+        <v>37.794326241134755</v>
       </c>
       <c r="E10">
-        <v>84410.55</v>
+        <f>buffer!E10/'Mungiture totali'!C10</f>
+        <v>299.3281914893617</v>
       </c>
       <c r="F10">
-        <v>13562.64</v>
+        <f>buffer!F10/'Mungiture totali'!C10</f>
+        <v>48.094468085106378</v>
       </c>
       <c r="G10">
-        <v>319429</v>
+        <f>buffer!G10/'Mungiture totali'!C10</f>
+        <v>1132.7269503546099</v>
       </c>
       <c r="H10">
-        <v>99178.69</v>
+        <f>buffer!H10/'Mungiture totali'!C10</f>
+        <v>351.69748226950355</v>
       </c>
       <c r="I10">
-        <v>27172.83</v>
+        <f>buffer!I10/'Mungiture totali'!C10</f>
+        <v>96.357553191489373</v>
       </c>
       <c r="J10">
-        <v>40787.229999999996</v>
+        <f>buffer!J10/'Mungiture totali'!C10</f>
+        <v>144.63556737588652</v>
       </c>
       <c r="K10">
-        <v>741</v>
+        <f>buffer!K10/'Mungiture totali'!C10</f>
+        <v>2.6276595744680851</v>
       </c>
       <c r="L10">
-        <v>873</v>
+        <f>buffer!L10/'Mungiture totali'!C10</f>
+        <v>3.0957446808510638</v>
       </c>
       <c r="M10">
-        <v>4192</v>
+        <f>buffer!M10/'Mungiture totali'!C10</f>
+        <v>14.865248226950355</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11">
         <f>buffer!C11/'Mungiture totali'!C11</f>
         <v>29.935159010600707</v>
       </c>
       <c r="D11">
-        <v>3808</v>
+        <f>buffer!D11/'Mungiture totali'!C11</f>
+        <v>7.9187279151943466</v>
       </c>
       <c r="E11">
-        <v>17830.916666666672</v>
+        <f>buffer!E11/'Mungiture totali'!C11</f>
+        <v>63.006772673733821</v>
       </c>
       <c r="F11">
-        <v>2848.2599999999998</v>
+        <f>buffer!F11/'Mungiture totali'!C11</f>
+        <v>10.064522968197879</v>
       </c>
       <c r="G11">
-        <v>75743</v>
+        <f>buffer!G11/'Mungiture totali'!C11</f>
+        <v>267.64310954063603</v>
       </c>
       <c r="H11">
-        <v>20727.43</v>
+        <f>buffer!H11/'Mungiture totali'!C11</f>
+        <v>73.241802120141344</v>
       </c>
       <c r="I11">
-        <v>5711.1500000000005</v>
+        <f>buffer!I11/'Mungiture totali'!C11</f>
+        <v>20.180742049469966</v>
       </c>
       <c r="J11">
-        <v>8479.34</v>
+        <f>buffer!J11/'Mungiture totali'!C11</f>
+        <v>29.962332155477032</v>
       </c>
       <c r="K11">
-        <v>159</v>
+        <f>buffer!K11/'Mungiture totali'!C11</f>
+        <v>0.56183745583038869</v>
       </c>
       <c r="L11">
-        <v>176</v>
+        <f>buffer!L11/'Mungiture totali'!C11</f>
+        <v>0.62190812720848054</v>
       </c>
       <c r="M11">
-        <v>1030</v>
+        <f>buffer!M11/'Mungiture totali'!C11</f>
+        <v>3.6395759717314489</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12">
         <f>buffer!C12/'Mungiture totali'!C12</f>
         <v>34.808245614035087</v>
       </c>
       <c r="D12">
-        <v>4472</v>
+        <f>buffer!D12/'Mungiture totali'!C12</f>
+        <v>9.3052631578947373</v>
       </c>
       <c r="E12">
-        <v>20828.683333333331</v>
+        <f>buffer!E12/'Mungiture totali'!C12</f>
+        <v>73.083099415204671</v>
       </c>
       <c r="F12">
-        <v>3392.4</v>
+        <f>buffer!F12/'Mungiture totali'!C12</f>
+        <v>11.903157894736843</v>
       </c>
       <c r="G12">
-        <v>147211</v>
+        <f>buffer!G12/'Mungiture totali'!C12</f>
+        <v>516.52982456140353</v>
       </c>
       <c r="H12">
-        <v>24341.54</v>
+        <f>buffer!H12/'Mungiture totali'!C12</f>
+        <v>85.408912280701756</v>
       </c>
       <c r="I12">
-        <v>6740.2300000000005</v>
+        <f>buffer!I12/'Mungiture totali'!C12</f>
+        <v>23.649929824561404</v>
       </c>
       <c r="J12">
-        <v>9931.119999999999</v>
+        <f>buffer!J12/'Mungiture totali'!C12</f>
+        <v>34.846035087719294</v>
       </c>
       <c r="K12">
-        <v>172</v>
+        <f>buffer!K12/'Mungiture totali'!C12</f>
+        <v>0.60350877192982455</v>
       </c>
       <c r="L12">
-        <v>238</v>
+        <f>buffer!L12/'Mungiture totali'!C12</f>
+        <v>0.83508771929824566</v>
       </c>
       <c r="M12">
-        <v>1287</v>
+        <f>buffer!M12/'Mungiture totali'!C12</f>
+        <v>4.5157894736842108</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13">
         <f>buffer!C13/'Mungiture totali'!C13</f>
         <v>97.698006993006999</v>
       </c>
       <c r="D13">
-        <v>16826</v>
+        <f>buffer!D13/'Mungiture totali'!C13</f>
+        <v>34.027972027972027</v>
       </c>
       <c r="E13">
-        <v>77051.95</v>
+        <f>buffer!E13/'Mungiture totali'!C13</f>
+        <v>269.41241258741258</v>
       </c>
       <c r="F13">
-        <v>11453.82</v>
+        <f>buffer!F13/'Mungiture totali'!C13</f>
+        <v>40.048321678321678</v>
       </c>
       <c r="G13">
-        <v>603973</v>
+        <f>buffer!G13/'Mungiture totali'!C13</f>
+        <v>2111.7937062937062</v>
       </c>
       <c r="H13">
-        <v>75338.33</v>
+        <f>buffer!H13/'Mungiture totali'!C13</f>
+        <v>263.42073426573427</v>
       </c>
       <c r="I13">
-        <v>21312.98</v>
+        <f>buffer!I13/'Mungiture totali'!C13</f>
+        <v>74.520909090909086</v>
       </c>
       <c r="J13">
-        <v>27974.42</v>
+        <f>buffer!J13/'Mungiture totali'!C13</f>
+        <v>97.812657342657332</v>
       </c>
       <c r="K13">
-        <v>757</v>
+        <f>buffer!K13/'Mungiture totali'!C13</f>
+        <v>2.6468531468531467</v>
       </c>
       <c r="L13">
-        <v>1186</v>
+        <f>buffer!L13/'Mungiture totali'!C13</f>
+        <v>4.1468531468531467</v>
       </c>
       <c r="M13">
-        <v>7465</v>
+        <f>buffer!M13/'Mungiture totali'!C13</f>
+        <v>26.1013986013986</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <f>buffer!C14/'Mungiture totali'!C14</f>
         <v>103.47814404432133</v>
       </c>
       <c r="D14">
-        <v>19976</v>
+        <f>buffer!D14/'Mungiture totali'!C14</f>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>93535.53333333334</v>
+        <f>buffer!E14/'Mungiture totali'!C14</f>
+        <v>259.10120036934444</v>
       </c>
       <c r="F14">
-        <v>15079.140000000001</v>
+        <f>buffer!F14/'Mungiture totali'!C14</f>
+        <v>41.770470914127429</v>
       </c>
       <c r="G14">
-        <v>1386347</v>
+        <f>buffer!G14/'Mungiture totali'!C14</f>
+        <v>3840.2963988919669</v>
       </c>
       <c r="H14">
-        <v>93824.9</v>
+        <f>buffer!H14/'Mungiture totali'!C14</f>
+        <v>259.9027700831025</v>
       </c>
       <c r="I14">
-        <v>27831.78</v>
+        <f>buffer!I14/'Mungiture totali'!C14</f>
+        <v>77.096343490304704</v>
       </c>
       <c r="J14">
-        <v>37403.120000000003</v>
+        <f>buffer!J14/'Mungiture totali'!C14</f>
+        <v>103.60975069252078</v>
       </c>
       <c r="K14">
-        <v>919</v>
+        <f>buffer!K14/'Mungiture totali'!C14</f>
+        <v>2.5457063711911356</v>
       </c>
       <c r="L14">
-        <v>1075</v>
+        <f>buffer!L14/'Mungiture totali'!C14</f>
+        <v>2.9778393351800556</v>
       </c>
       <c r="M14">
-        <v>8860</v>
+        <f>buffer!M14/'Mungiture totali'!C14</f>
+        <v>24.542936288088644</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15">
         <f>buffer!C15/'Mungiture totali'!C15</f>
         <v>105.09068681318682</v>
       </c>
       <c r="D15">
-        <v>19592</v>
+        <f>buffer!D15/'Mungiture totali'!C15</f>
+        <v>31.565934065934066</v>
       </c>
       <c r="E15">
-        <v>89213.85</v>
+        <f>buffer!E15/'Mungiture totali'!C15</f>
+        <v>245.09299450549452</v>
       </c>
       <c r="F15">
-        <v>14500.259999999998</v>
+        <f>buffer!F15/'Mungiture totali'!C15</f>
+        <v>39.835879120879113</v>
       </c>
       <c r="G15">
-        <v>670216</v>
+        <f>buffer!G15/'Mungiture totali'!C15</f>
+        <v>1841.2527472527472</v>
       </c>
       <c r="H15">
-        <v>91518.57</v>
+        <f>buffer!H15/'Mungiture totali'!C15</f>
+        <v>251.42464285714289</v>
       </c>
       <c r="I15">
-        <v>27430.349999999995</v>
+        <f>buffer!I15/'Mungiture totali'!C15</f>
+        <v>75.358104395604386</v>
       </c>
       <c r="J15">
-        <v>38305.020000000004</v>
+        <f>buffer!J15/'Mungiture totali'!C15</f>
+        <v>105.23357142857144</v>
       </c>
       <c r="K15">
-        <v>766</v>
+        <f>buffer!K15/'Mungiture totali'!C15</f>
+        <v>2.1043956043956045</v>
       </c>
       <c r="L15">
-        <v>1109</v>
+        <f>buffer!L15/'Mungiture totali'!C15</f>
+        <v>3.0467032967032965</v>
       </c>
       <c r="M15">
-        <v>8809</v>
+        <f>buffer!M15/'Mungiture totali'!C15</f>
+        <v>24.200549450549449</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16">
         <f>buffer!C16/'Mungiture totali'!C16</f>
         <v>114.71817174515236</v>
       </c>
       <c r="D16">
-        <v>20549</v>
+        <f>buffer!D16/'Mungiture totali'!C16</f>
+        <v>32.969529085872573</v>
       </c>
       <c r="E16">
-        <v>92768.78333333334</v>
+        <f>buffer!E16/'Mungiture totali'!C16</f>
+        <v>256.97723915050784</v>
       </c>
       <c r="F16">
-        <v>15451.78</v>
+        <f>buffer!F16/'Mungiture totali'!C16</f>
+        <v>42.802714681440442</v>
       </c>
       <c r="G16">
-        <v>340373</v>
+        <f>buffer!G16/'Mungiture totali'!C16</f>
+        <v>942.86149584487532</v>
       </c>
       <c r="H16">
-        <v>98485.71</v>
+        <f>buffer!H16/'Mungiture totali'!C16</f>
+        <v>272.81360110803325</v>
       </c>
       <c r="I16">
-        <v>29666.030000000002</v>
+        <f>buffer!I16/'Mungiture totali'!C16</f>
+        <v>82.177368421052634</v>
       </c>
       <c r="J16">
-        <v>41428.570000000007</v>
+        <f>buffer!J16/'Mungiture totali'!C16</f>
+        <v>114.76058171745154</v>
       </c>
       <c r="K16">
-        <v>748</v>
+        <f>buffer!K16/'Mungiture totali'!C16</f>
+        <v>2.0720221606648201</v>
       </c>
       <c r="L16">
-        <v>1237</v>
+        <f>buffer!L16/'Mungiture totali'!C16</f>
+        <v>3.4265927977839334</v>
       </c>
       <c r="M16">
-        <v>8051</v>
+        <f>buffer!M16/'Mungiture totali'!C16</f>
+        <v>22.301939058171744</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17">
         <f>buffer!C17/'Mungiture totali'!C17</f>
         <v>132.49680555555554</v>
       </c>
       <c r="D17">
-        <v>21434</v>
+        <f>buffer!D17/'Mungiture totali'!C17</f>
+        <v>34.547222222222224</v>
       </c>
       <c r="E17">
-        <v>96725.9</v>
+        <f>buffer!E17/'Mungiture totali'!C17</f>
+        <v>268.68305555555554</v>
       </c>
       <c r="F17">
-        <v>16734.239999999998</v>
+        <f>buffer!F17/'Mungiture totali'!C17</f>
+        <v>46.483999999999995</v>
       </c>
       <c r="G17">
-        <v>429768</v>
+        <f>buffer!G17/'Mungiture totali'!C17</f>
+        <v>1193.8</v>
       </c>
       <c r="H17">
-        <v>108772.56</v>
+        <f>buffer!H17/'Mungiture totali'!C17</f>
+        <v>302.14600000000002</v>
       </c>
       <c r="I17">
-        <v>32747.84</v>
+        <f>buffer!I17/'Mungiture totali'!C17</f>
+        <v>90.966222222222228</v>
       </c>
       <c r="J17">
-        <v>47707.57</v>
+        <f>buffer!J17/'Mungiture totali'!C17</f>
+        <v>132.52102777777779</v>
       </c>
       <c r="K17">
-        <v>686</v>
+        <f>buffer!K17/'Mungiture totali'!C17</f>
+        <v>1.9055555555555554</v>
       </c>
       <c r="L17">
-        <v>1014</v>
+        <f>buffer!L17/'Mungiture totali'!C17</f>
+        <v>2.8166666666666669</v>
       </c>
       <c r="M17">
-        <v>7515</v>
+        <f>buffer!M17/'Mungiture totali'!C17</f>
+        <v>20.875</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18">
         <f>buffer!C18/'Mungiture totali'!C18</f>
         <v>153.18264623955432</v>
       </c>
       <c r="D18">
-        <v>23008</v>
+        <f>buffer!D18/'Mungiture totali'!C18</f>
+        <v>37.242339832869078</v>
       </c>
       <c r="E18">
-        <v>107628.6</v>
+        <f>buffer!E18/'Mungiture totali'!C18</f>
+        <v>299.80111420612815</v>
       </c>
       <c r="F18">
-        <v>18187.439999999999</v>
+        <f>buffer!F18/'Mungiture totali'!C18</f>
+        <v>50.661392757660167</v>
       </c>
       <c r="G18">
-        <v>453421</v>
+        <f>buffer!G18/'Mungiture totali'!C18</f>
+        <v>1263.0111420612814</v>
       </c>
       <c r="H18">
-        <v>121196.61000000002</v>
+        <f>buffer!H18/'Mungiture totali'!C18</f>
+        <v>337.59501392757664</v>
       </c>
       <c r="I18">
-        <v>36546.82</v>
+        <f>buffer!I18/'Mungiture totali'!C18</f>
+        <v>101.8017270194986</v>
       </c>
       <c r="J18">
-        <v>55026.680000000008</v>
+        <f>buffer!J18/'Mungiture totali'!C18</f>
+        <v>153.27766016713093</v>
       </c>
       <c r="K18">
-        <v>873</v>
+        <f>buffer!K18/'Mungiture totali'!C18</f>
+        <v>2.4317548746518107</v>
       </c>
       <c r="L18">
-        <v>1197</v>
+        <f>buffer!L18/'Mungiture totali'!C18</f>
+        <v>3.3342618384401113</v>
       </c>
       <c r="M18">
-        <v>6593</v>
+        <f>buffer!M18/'Mungiture totali'!C18</f>
+        <v>18.364902506963787</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19">
         <f>buffer!C19/'Mungiture totali'!C19</f>
         <v>153.60398328690809</v>
       </c>
       <c r="D19">
-        <v>21321</v>
+        <f>buffer!D19/'Mungiture totali'!C19</f>
+        <v>36.440111420612816</v>
       </c>
       <c r="E19">
-        <v>102834.5</v>
+        <f>buffer!E19/'Mungiture totali'!C19</f>
+        <v>286.44707520891365</v>
       </c>
       <c r="F19">
-        <v>18012.54</v>
+        <f>buffer!F19/'Mungiture totali'!C19</f>
+        <v>50.174206128133704</v>
       </c>
       <c r="G19">
-        <v>367735</v>
+        <f>buffer!G19/'Mungiture totali'!C19</f>
+        <v>1024.3314763231199</v>
       </c>
       <c r="H19">
-        <v>116890.67000000001</v>
+        <f>buffer!H19/'Mungiture totali'!C19</f>
+        <v>325.60075208913651</v>
       </c>
       <c r="I19">
-        <v>36032.270000000004</v>
+        <f>buffer!I19/'Mungiture totali'!C19</f>
+        <v>100.36844011142063</v>
       </c>
       <c r="J19">
-        <v>55169.280000000006</v>
+        <f>buffer!J19/'Mungiture totali'!C19</f>
+        <v>153.6748746518106</v>
       </c>
       <c r="K19">
-        <v>661</v>
+        <f>buffer!K19/'Mungiture totali'!C19</f>
+        <v>1.841225626740947</v>
       </c>
       <c r="L19">
-        <v>1182</v>
+        <f>buffer!L19/'Mungiture totali'!C19</f>
+        <v>3.2924791086350975</v>
       </c>
       <c r="M19">
-        <v>6504</v>
+        <f>buffer!M19/'Mungiture totali'!C19</f>
+        <v>18.116991643454039</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20">
         <f>buffer!C20/'Mungiture totali'!C20</f>
         <v>174.66551532033426</v>
       </c>
       <c r="D20">
-        <v>24393</v>
+        <f>buffer!D20/'Mungiture totali'!C20</f>
+        <v>41.657381615598887</v>
       </c>
       <c r="E20">
-        <v>109765.8833333333</v>
+        <f>buffer!E20/'Mungiture totali'!C20</f>
+        <v>305.7545496750231</v>
       </c>
       <c r="F20">
-        <v>21682.14</v>
+        <f>buffer!F20/'Mungiture totali'!C20</f>
+        <v>60.395933147632313</v>
       </c>
       <c r="G20">
-        <v>500937</v>
+        <f>buffer!G20/'Mungiture totali'!C20</f>
+        <v>1395.367688022284</v>
       </c>
       <c r="H20">
-        <v>128839.47</v>
+        <f>buffer!H20/'Mungiture totali'!C20</f>
+        <v>358.88431754874654</v>
       </c>
       <c r="I20">
-        <v>41837.14</v>
+        <f>buffer!I20/'Mungiture totali'!C20</f>
+        <v>116.53799442896936</v>
       </c>
       <c r="J20">
-        <v>62709.56</v>
+        <f>buffer!J20/'Mungiture totali'!C20</f>
+        <v>174.6784401114206</v>
       </c>
       <c r="K20">
-        <v>637</v>
+        <f>buffer!K20/'Mungiture totali'!C20</f>
+        <v>1.7743732590529249</v>
       </c>
       <c r="L20">
-        <v>1351</v>
+        <f>buffer!L20/'Mungiture totali'!C20</f>
+        <v>3.7632311977715878</v>
       </c>
       <c r="M20">
-        <v>6650</v>
+        <f>buffer!M20/'Mungiture totali'!C20</f>
+        <v>18.52367688022284</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21">
         <f>buffer!C21/'Mungiture totali'!C21</f>
         <v>169.14963988919666</v>
       </c>
       <c r="D21">
-        <v>25956</v>
+        <f>buffer!D21/'Mungiture totali'!C21</f>
+        <v>43.263157894736842</v>
       </c>
       <c r="E21">
-        <v>112582.1166666667</v>
+        <f>buffer!E21/'Mungiture totali'!C21</f>
+        <v>311.86181902123741</v>
       </c>
       <c r="F21">
-        <v>21540.18</v>
+        <f>buffer!F21/'Mungiture totali'!C21</f>
+        <v>59.668088642659278</v>
       </c>
       <c r="G21">
-        <v>567383</v>
+        <f>buffer!G21/'Mungiture totali'!C21</f>
+        <v>1571.6980609418283</v>
       </c>
       <c r="H21">
-        <v>129746.74</v>
+        <f>buffer!H21/'Mungiture totali'!C21</f>
+        <v>359.40925207756231</v>
       </c>
       <c r="I21">
-        <v>41359.01</v>
+        <f>buffer!I21/'Mungiture totali'!C21</f>
+        <v>114.56789473684211</v>
       </c>
       <c r="J21">
-        <v>61070.22</v>
+        <f>buffer!J21/'Mungiture totali'!C21</f>
+        <v>169.16958448753462</v>
       </c>
       <c r="K21">
-        <v>420</v>
+        <f>buffer!K21/'Mungiture totali'!C21</f>
+        <v>1.1634349030470914</v>
       </c>
       <c r="L21">
-        <v>845</v>
+        <f>buffer!L21/'Mungiture totali'!C21</f>
+        <v>2.3407202216066483</v>
       </c>
       <c r="M21">
-        <v>6369</v>
+        <f>buffer!M21/'Mungiture totali'!C21</f>
+        <v>17.642659279778393</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22">
         <f>buffer!C22/'Mungiture totali'!C22</f>
         <v>150.456338028169</v>
       </c>
       <c r="D22">
-        <v>23502</v>
+        <f>buffer!D22/'Mungiture totali'!C22</f>
+        <v>40.608450704225355</v>
       </c>
       <c r="E22">
-        <v>106283.0333333333</v>
+        <f>buffer!E22/'Mungiture totali'!C22</f>
+        <v>299.38882629107968</v>
       </c>
       <c r="F22">
-        <v>19174.439999999999</v>
+        <f>buffer!F22/'Mungiture totali'!C22</f>
+        <v>54.012507042253517</v>
       </c>
       <c r="G22">
-        <v>402557</v>
+        <f>buffer!G22/'Mungiture totali'!C22</f>
+        <v>1133.9633802816902</v>
       </c>
       <c r="H22">
-        <v>111923.2</v>
+        <f>buffer!H22/'Mungiture totali'!C22</f>
+        <v>315.27661971830986</v>
       </c>
       <c r="I22">
-        <v>36480.090000000004</v>
+        <f>buffer!I22/'Mungiture totali'!C22</f>
+        <v>102.76081690140846</v>
       </c>
       <c r="J22">
-        <v>53421.33</v>
+        <f>buffer!J22/'Mungiture totali'!C22</f>
+        <v>150.48261971830988</v>
       </c>
       <c r="K22">
-        <v>515</v>
+        <f>buffer!K22/'Mungiture totali'!C22</f>
+        <v>1.4507042253521127</v>
       </c>
       <c r="L22">
-        <v>1053</v>
+        <f>buffer!L22/'Mungiture totali'!C22</f>
+        <v>2.9661971830985916</v>
       </c>
       <c r="M22">
-        <v>7331</v>
+        <f>buffer!M22/'Mungiture totali'!C22</f>
+        <v>20.650704225352111</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23">
         <f>buffer!C23/'Mungiture totali'!C23</f>
         <v>59.128816901408449</v>
       </c>
       <c r="D23">
-        <v>9690</v>
+        <f>buffer!D23/'Mungiture totali'!C23</f>
+        <v>16.27605633802817</v>
       </c>
       <c r="E23">
-        <v>44098.466666666667</v>
+        <f>buffer!E23/'Mungiture totali'!C23</f>
+        <v>124.22103286384977</v>
       </c>
       <c r="F23">
-        <v>7753.68</v>
+        <f>buffer!F23/'Mungiture totali'!C23</f>
+        <v>21.841352112676056</v>
       </c>
       <c r="G23">
-        <v>222381</v>
+        <f>buffer!G23/'Mungiture totali'!C23</f>
+        <v>626.42535211267602</v>
       </c>
       <c r="H23">
-        <v>46247.91</v>
+        <f>buffer!H23/'Mungiture totali'!C23</f>
+        <v>130.27580281690143</v>
       </c>
       <c r="I23">
-        <v>14638.44</v>
+        <f>buffer!I23/'Mungiture totali'!C23</f>
+        <v>41.235042253521129</v>
       </c>
       <c r="J23">
-        <v>20993.86</v>
+        <f>buffer!J23/'Mungiture totali'!C23</f>
+        <v>59.1376338028169</v>
       </c>
       <c r="K23">
-        <v>331</v>
+        <f>buffer!K23/'Mungiture totali'!C23</f>
+        <v>0.93239436619718308</v>
       </c>
       <c r="L23">
-        <v>494</v>
+        <f>buffer!L23/'Mungiture totali'!C23</f>
+        <v>1.3915492957746478</v>
       </c>
       <c r="M23">
-        <v>3393</v>
+        <f>buffer!M23/'Mungiture totali'!C23</f>
+        <v>9.5577464788732396</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24">
         <f>buffer!C24/'Mungiture totali'!C24</f>
         <v>126.89299719887956</v>
       </c>
       <c r="D24">
-        <v>19789</v>
+        <f>buffer!D24/'Mungiture totali'!C24</f>
+        <v>34.635854341736696</v>
       </c>
       <c r="E24">
-        <v>90040.883333333331</v>
+        <f>buffer!E24/'Mungiture totali'!C24</f>
+        <v>252.21535947712417</v>
       </c>
       <c r="F24">
-        <v>16833.359999999997</v>
+        <f>buffer!F24/'Mungiture totali'!C24</f>
+        <v>47.15226890756302</v>
       </c>
       <c r="G24">
-        <v>434889</v>
+        <f>buffer!G24/'Mungiture totali'!C24</f>
+        <v>1218.1764705882354</v>
       </c>
       <c r="H24">
-        <v>92324.92</v>
+        <f>buffer!H24/'Mungiture totali'!C24</f>
+        <v>258.61322128851538</v>
       </c>
       <c r="I24">
-        <v>31059.379999999997</v>
+        <f>buffer!I24/'Mungiture totali'!C24</f>
+        <v>87.001064425770295</v>
       </c>
       <c r="J24">
-        <v>45307.64</v>
+        <f>buffer!J24/'Mungiture totali'!C24</f>
+        <v>126.91215686274509</v>
       </c>
       <c r="K24">
-        <v>489</v>
+        <f>buffer!K24/'Mungiture totali'!C24</f>
+        <v>1.3697478991596639</v>
       </c>
       <c r="L24">
-        <v>768</v>
+        <f>buffer!L24/'Mungiture totali'!C24</f>
+        <v>2.1512605042016806</v>
       </c>
       <c r="M24">
-        <v>6771</v>
+        <f>buffer!M24/'Mungiture totali'!C24</f>
+        <v>18.966386554621849</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25">
         <f>buffer!C25/'Mungiture totali'!C25</f>
         <v>124.01790760869564</v>
       </c>
       <c r="D25">
-        <v>20132</v>
+        <f>buffer!D25/'Mungiture totali'!C25</f>
+        <v>33.690217391304351</v>
       </c>
       <c r="E25">
-        <v>88910.183333333334</v>
+        <f>buffer!E25/'Mungiture totali'!C25</f>
+        <v>241.60375905797102</v>
       </c>
       <c r="F25">
-        <v>17741.760000000002</v>
+        <f>buffer!F25/'Mungiture totali'!C25</f>
+        <v>48.211304347826093</v>
       </c>
       <c r="G25">
-        <v>524937</v>
+        <f>buffer!G25/'Mungiture totali'!C25</f>
+        <v>1426.4592391304348</v>
       </c>
       <c r="H25">
-        <v>83237.340000000011</v>
+        <f>buffer!H25/'Mungiture totali'!C25</f>
+        <v>226.18842391304352</v>
       </c>
       <c r="I25">
-        <v>32048.06</v>
+        <f>buffer!I25/'Mungiture totali'!C25</f>
+        <v>87.087119565217392</v>
       </c>
       <c r="J25">
-        <v>45648.7</v>
+        <f>buffer!J25/'Mungiture totali'!C25</f>
+        <v>124.0453804347826</v>
       </c>
       <c r="K25">
-        <v>667</v>
+        <f>buffer!K25/'Mungiture totali'!C25</f>
+        <v>1.8125</v>
       </c>
       <c r="L25">
-        <v>1284</v>
+        <f>buffer!L25/'Mungiture totali'!C25</f>
+        <v>3.4891304347826089</v>
       </c>
       <c r="M25">
-        <v>7311</v>
+        <f>buffer!M25/'Mungiture totali'!C25</f>
+        <v>19.866847826086957</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26">
         <f>buffer!C26/'Mungiture totali'!C26</f>
         <v>127.99605479452055</v>
       </c>
       <c r="D26">
-        <v>21793</v>
+        <f>buffer!D26/'Mungiture totali'!C26</f>
+        <v>34.830136986301369</v>
       </c>
       <c r="E26">
-        <v>87592.7</v>
+        <f>buffer!E26/'Mungiture totali'!C26</f>
+        <v>239.98</v>
       </c>
       <c r="F26">
-        <v>18692.999999999996</v>
+        <f>buffer!F26/'Mungiture totali'!C26</f>
+        <v>51.213698630136975</v>
       </c>
       <c r="G26">
-        <v>511638</v>
+        <f>buffer!G26/'Mungiture totali'!C26</f>
+        <v>1401.7479452054795</v>
       </c>
       <c r="H26">
-        <v>76846.69</v>
+        <f>buffer!H26/'Mungiture totali'!C26</f>
+        <v>210.53887671232877</v>
       </c>
       <c r="I26">
-        <v>32843.630000000005</v>
+        <f>buffer!I26/'Mungiture totali'!C26</f>
+        <v>89.982547945205496</v>
       </c>
       <c r="J26">
-        <v>46718.559999999998</v>
+        <f>buffer!J26/'Mungiture totali'!C26</f>
+        <v>127.99605479452055</v>
       </c>
       <c r="K26">
-        <v>594</v>
+        <f>buffer!K26/'Mungiture totali'!C26</f>
+        <v>1.6273972602739726</v>
       </c>
       <c r="L26">
-        <v>1343</v>
+        <f>buffer!L26/'Mungiture totali'!C26</f>
+        <v>3.6794520547945204</v>
       </c>
       <c r="M26">
-        <v>6357</v>
+        <f>buffer!M26/'Mungiture totali'!C26</f>
+        <v>17.416438356164385</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27">
         <f>buffer!C27/'Mungiture totali'!C27</f>
         <v>46.039207650273219</v>
       </c>
       <c r="D27">
-        <v>7963</v>
+        <f>buffer!D27/'Mungiture totali'!C27</f>
+        <v>12.297814207650273</v>
       </c>
       <c r="E27">
-        <v>30579.9</v>
+        <f>buffer!E27/'Mungiture totali'!C27</f>
+        <v>83.551639344262298</v>
       </c>
       <c r="F27">
-        <v>6490.8600000000006</v>
+        <f>buffer!F27/'Mungiture totali'!C27</f>
+        <v>17.734590163934428</v>
       </c>
       <c r="G27">
-        <v>138079</v>
+        <f>buffer!G27/'Mungiture totali'!C27</f>
+        <v>377.26502732240436</v>
       </c>
       <c r="H27">
-        <v>26256.639999999999</v>
+        <f>buffer!H27/'Mungiture totali'!C27</f>
+        <v>71.739453551912561</v>
       </c>
       <c r="I27">
-        <v>11658.19</v>
+        <f>buffer!I27/'Mungiture totali'!C27</f>
+        <v>31.852978142076505</v>
       </c>
       <c r="J27">
-        <v>16850.349999999999</v>
+        <f>buffer!J27/'Mungiture totali'!C27</f>
+        <v>46.039207650273219</v>
       </c>
       <c r="K27">
-        <v>167</v>
+        <f>buffer!K27/'Mungiture totali'!C27</f>
+        <v>0.45628415300546449</v>
       </c>
       <c r="L27">
-        <v>434</v>
+        <f>buffer!L27/'Mungiture totali'!C27</f>
+        <v>1.1857923497267759</v>
       </c>
       <c r="M27">
-        <v>1774</v>
+        <f>buffer!M27/'Mungiture totali'!C27</f>
+        <v>4.8469945355191255</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28">
         <f>buffer!C28/'Mungiture totali'!C28</f>
         <v>46.956011080332409</v>
       </c>
       <c r="D28">
-        <v>8136</v>
+        <f>buffer!D28/'Mungiture totali'!C28</f>
+        <v>12.606648199445983</v>
       </c>
       <c r="E28">
-        <v>30544.833333333328</v>
+        <f>buffer!E28/'Mungiture totali'!C28</f>
+        <v>84.611726685133874</v>
       </c>
       <c r="F28">
-        <v>6634.42</v>
+        <f>buffer!F28/'Mungiture totali'!C28</f>
+        <v>18.377894736842105</v>
       </c>
       <c r="G28">
-        <v>119076</v>
+        <f>buffer!G28/'Mungiture totali'!C28</f>
+        <v>329.85041551246536</v>
       </c>
       <c r="H28">
-        <v>26869.4</v>
+        <f>buffer!H28/'Mungiture totali'!C28</f>
+        <v>74.430470914127426</v>
       </c>
       <c r="I28">
-        <v>11777.88</v>
+        <f>buffer!I28/'Mungiture totali'!C28</f>
+        <v>32.625706371191136</v>
       </c>
       <c r="J28">
-        <v>16951.12</v>
+        <f>buffer!J28/'Mungiture totali'!C28</f>
+        <v>46.956011080332409</v>
       </c>
       <c r="K28">
-        <v>163</v>
+        <f>buffer!K28/'Mungiture totali'!C28</f>
+        <v>0.45152354570637121</v>
       </c>
       <c r="L28">
-        <v>418</v>
+        <f>buffer!L28/'Mungiture totali'!C28</f>
+        <v>1.1578947368421053</v>
       </c>
       <c r="M28">
-        <v>1699</v>
+        <f>buffer!M28/'Mungiture totali'!C28</f>
+        <v>4.7063711911357338</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29">
         <f>buffer!C29/'Mungiture totali'!C29</f>
         <v>122.51566298342541</v>
       </c>
       <c r="D29">
-        <v>20898</v>
+        <f>buffer!D29/'Mungiture totali'!C29</f>
+        <v>31.370165745856355</v>
       </c>
       <c r="E29">
-        <v>75977.233333333337</v>
+        <f>buffer!E29/'Mungiture totali'!C29</f>
+        <v>209.88186003683242</v>
       </c>
       <c r="F29">
-        <v>17093.22</v>
+        <f>buffer!F29/'Mungiture totali'!C29</f>
+        <v>47.218839779005528</v>
       </c>
       <c r="G29">
-        <v>258970</v>
+        <f>buffer!G29/'Mungiture totali'!C29</f>
+        <v>715.38674033149175</v>
       </c>
       <c r="H29">
-        <v>69334.38</v>
+        <f>buffer!H29/'Mungiture totali'!C29</f>
+        <v>191.53143646408842</v>
       </c>
       <c r="I29">
-        <v>30920.07</v>
+        <f>buffer!I29/'Mungiture totali'!C29</f>
+        <v>85.414558011049721</v>
       </c>
       <c r="J29">
-        <v>44350.67</v>
+        <f>buffer!J29/'Mungiture totali'!C29</f>
+        <v>122.51566298342541</v>
       </c>
       <c r="K29">
-        <v>464</v>
+        <f>buffer!K29/'Mungiture totali'!C29</f>
+        <v>1.281767955801105</v>
       </c>
       <c r="L29">
-        <v>886</v>
+        <f>buffer!L29/'Mungiture totali'!C29</f>
+        <v>2.4475138121546962</v>
       </c>
       <c r="M29">
-        <v>3852</v>
+        <f>buffer!M29/'Mungiture totali'!C29</f>
+        <v>10.640883977900552</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30">
         <f>buffer!C30/'Mungiture totali'!C30</f>
         <v>156.08276243093923</v>
       </c>
       <c r="D30">
-        <v>27243</v>
+        <f>buffer!D30/'Mungiture totali'!C30</f>
+        <v>41.334254143646412</v>
       </c>
       <c r="E30">
-        <v>100652.7</v>
+        <f>buffer!E30/'Mungiture totali'!C30</f>
+        <v>278.04613259668508</v>
       </c>
       <c r="F30">
-        <v>21741.9</v>
+        <f>buffer!F30/'Mungiture totali'!C30</f>
+        <v>60.060497237569066</v>
       </c>
       <c r="G30">
-        <v>470824</v>
+        <f>buffer!G30/'Mungiture totali'!C30</f>
+        <v>1300.6187845303868</v>
       </c>
       <c r="H30">
-        <v>90540.69</v>
+        <f>buffer!H30/'Mungiture totali'!C30</f>
+        <v>250.11240331491715</v>
       </c>
       <c r="I30">
-        <v>39572.11</v>
+        <f>buffer!I30/'Mungiture totali'!C30</f>
+        <v>109.31522099447514</v>
       </c>
       <c r="J30">
-        <v>56501.959999999992</v>
+        <f>buffer!J30/'Mungiture totali'!C30</f>
+        <v>156.0827624309392</v>
       </c>
       <c r="K30">
-        <v>513</v>
+        <f>buffer!K30/'Mungiture totali'!C30</f>
+        <v>1.4171270718232045</v>
       </c>
       <c r="L30">
-        <v>1183</v>
+        <f>buffer!L30/'Mungiture totali'!C30</f>
+        <v>3.2679558011049723</v>
       </c>
       <c r="M30">
-        <v>4881</v>
+        <f>buffer!M30/'Mungiture totali'!C30</f>
+        <v>13.483425414364641</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31">
         <f>buffer!C31/'Mungiture totali'!C31</f>
         <v>149.83930747922437</v>
       </c>
       <c r="D31">
-        <v>26190</v>
+        <f>buffer!D31/'Mungiture totali'!C31</f>
+        <v>40.119113573407205</v>
       </c>
       <c r="E31">
-        <v>97605.866666666669</v>
+        <f>buffer!E31/'Mungiture totali'!C31</f>
+        <v>270.37636195752538</v>
       </c>
       <c r="F31">
-        <v>20770.98</v>
+        <f>buffer!F31/'Mungiture totali'!C31</f>
+        <v>57.537340720221607</v>
       </c>
       <c r="G31">
-        <v>482038</v>
+        <f>buffer!G31/'Mungiture totali'!C31</f>
+        <v>1335.2853185595568</v>
       </c>
       <c r="H31">
-        <v>85604.959999999992</v>
+        <f>buffer!H31/'Mungiture totali'!C31</f>
+        <v>237.13285318559554</v>
       </c>
       <c r="I31">
-        <v>37899.949999999997</v>
+        <f>buffer!I31/'Mungiture totali'!C31</f>
+        <v>104.9860110803324</v>
       </c>
       <c r="J31">
-        <v>54091.99</v>
+        <f>buffer!J31/'Mungiture totali'!C31</f>
+        <v>149.83930747922437</v>
       </c>
       <c r="K31">
-        <v>573</v>
+        <f>buffer!K31/'Mungiture totali'!C31</f>
+        <v>1.5872576177285318</v>
       </c>
       <c r="L31">
-        <v>1338</v>
+        <f>buffer!L31/'Mungiture totali'!C31</f>
+        <v>3.7063711911357342</v>
       </c>
       <c r="M31">
-        <v>5028</v>
+        <f>buffer!M31/'Mungiture totali'!C31</f>
+        <v>13.927977839335179</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32">
         <f>buffer!C32/'Mungiture totali'!C32</f>
         <v>159.73493112947659</v>
       </c>
       <c r="D32">
-        <v>27333</v>
+        <f>buffer!D32/'Mungiture totali'!C32</f>
+        <v>41.512396694214878</v>
       </c>
       <c r="E32">
-        <v>101771.9666666667</v>
+        <f>buffer!E32/'Mungiture totali'!C32</f>
+        <v>280.36354453627189</v>
       </c>
       <c r="F32">
-        <v>21682.38</v>
+        <f>buffer!F32/'Mungiture totali'!C32</f>
+        <v>59.731074380165289</v>
       </c>
       <c r="G32">
-        <v>489711</v>
+        <f>buffer!G32/'Mungiture totali'!C32</f>
+        <v>1349.0661157024792</v>
       </c>
       <c r="H32">
-        <v>89727.450000000012</v>
+        <f>buffer!H32/'Mungiture totali'!C32</f>
+        <v>247.18305785123971</v>
       </c>
       <c r="I32">
-        <v>40043.360000000001</v>
+        <f>buffer!I32/'Mungiture totali'!C32</f>
+        <v>110.31228650137741</v>
       </c>
       <c r="J32">
-        <v>57983.780000000006</v>
+        <f>buffer!J32/'Mungiture totali'!C32</f>
+        <v>159.73493112947659</v>
       </c>
       <c r="K32">
-        <v>498</v>
+        <f>buffer!K32/'Mungiture totali'!C32</f>
+        <v>1.3719008264462811</v>
       </c>
       <c r="L32">
-        <v>1485</v>
+        <f>buffer!L32/'Mungiture totali'!C32</f>
+        <v>4.0909090909090908</v>
       </c>
       <c r="M32">
-        <v>4805</v>
+        <f>buffer!M32/'Mungiture totali'!C32</f>
+        <v>13.236914600550964</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1">
-        <v>8</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33">
         <f>buffer!C33/'Mungiture totali'!C33</f>
         <v>147.27391666666668</v>
       </c>
       <c r="D33">
-        <v>25403</v>
+        <f>buffer!D33/'Mungiture totali'!C33</f>
+        <v>39.030555555555559</v>
       </c>
       <c r="E33">
-        <v>93950.333333333328</v>
+        <f>buffer!E33/'Mungiture totali'!C33</f>
+        <v>260.97314814814814</v>
       </c>
       <c r="F33">
-        <v>20377.32</v>
+        <f>buffer!F33/'Mungiture totali'!C33</f>
+        <v>56.603666666666669</v>
       </c>
       <c r="G33">
-        <v>425153</v>
+        <f>buffer!G33/'Mungiture totali'!C33</f>
+        <v>1180.9805555555556</v>
       </c>
       <c r="H33">
-        <v>85036.97</v>
+        <f>buffer!H33/'Mungiture totali'!C33</f>
+        <v>236.21380555555555</v>
       </c>
       <c r="I33">
-        <v>36269.760000000002</v>
+        <f>buffer!I33/'Mungiture totali'!C33</f>
+        <v>100.74933333333334</v>
       </c>
       <c r="J33">
-        <v>53018.61</v>
+        <f>buffer!J33/'Mungiture totali'!C33</f>
+        <v>147.27391666666668</v>
       </c>
       <c r="K33">
-        <v>446</v>
+        <f>buffer!K33/'Mungiture totali'!C33</f>
+        <v>1.2388888888888889</v>
       </c>
       <c r="L33">
-        <v>1113</v>
+        <f>buffer!L33/'Mungiture totali'!C33</f>
+        <v>3.0916666666666668</v>
       </c>
       <c r="M33">
-        <v>4334</v>
+        <f>buffer!M33/'Mungiture totali'!C33</f>
+        <v>12.03888888888889</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5"/>
       <c r="C34">
         <f>buffer!C34/'Mungiture totali'!C34</f>
         <v>127.64317548746519</v>
       </c>
       <c r="D34">
-        <v>22505</v>
+        <f>buffer!D34/'Mungiture totali'!C34</f>
+        <v>34.431754874651809</v>
       </c>
       <c r="E34">
-        <v>84163.78333333334</v>
+        <f>buffer!E34/'Mungiture totali'!C34</f>
+        <v>234.43950789229342</v>
       </c>
       <c r="F34">
-        <v>17575.739999999998</v>
+        <f>buffer!F34/'Mungiture totali'!C34</f>
+        <v>48.957493036211694</v>
       </c>
       <c r="G34">
-        <v>299094</v>
+        <f>buffer!G34/'Mungiture totali'!C34</f>
+        <v>833.13091922005572</v>
       </c>
       <c r="H34">
-        <v>72105.320000000007</v>
+        <f>buffer!H34/'Mungiture totali'!C34</f>
+        <v>200.85047353760447</v>
       </c>
       <c r="I34">
-        <v>31566.549999999996</v>
+        <f>buffer!I34/'Mungiture totali'!C34</f>
+        <v>87.929108635097478</v>
       </c>
       <c r="J34">
-        <v>45823.899999999994</v>
+        <f>buffer!J34/'Mungiture totali'!C34</f>
+        <v>127.64317548746517</v>
       </c>
       <c r="K34">
-        <v>385</v>
+        <f>buffer!K34/'Mungiture totali'!C34</f>
+        <v>1.0724233983286908</v>
       </c>
       <c r="L34">
-        <v>1100</v>
+        <f>buffer!L34/'Mungiture totali'!C34</f>
+        <v>3.0640668523676879</v>
       </c>
       <c r="M34">
-        <v>4645</v>
+        <f>buffer!M34/'Mungiture totali'!C34</f>
+        <v>12.938718662952645</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1">
-        <v>10</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35">
         <f>buffer!C35/'Mungiture totali'!C35</f>
         <v>114.10053221288516</v>
       </c>
       <c r="D35">
-        <v>21340</v>
+        <f>buffer!D35/'Mungiture totali'!C35</f>
+        <v>32.431372549019606</v>
       </c>
       <c r="E35">
-        <v>77454.233333333337</v>
+        <f>buffer!E35/'Mungiture totali'!C35</f>
+        <v>216.95863678804855</v>
       </c>
       <c r="F35">
-        <v>16463.400000000001</v>
+        <f>buffer!F35/'Mungiture totali'!C35</f>
+        <v>46.115966386554625</v>
       </c>
       <c r="G35">
-        <v>307208</v>
+        <f>buffer!G35/'Mungiture totali'!C35</f>
+        <v>860.52661064425774</v>
       </c>
       <c r="H35">
-        <v>64646.39</v>
+        <f>buffer!H35/'Mungiture totali'!C35</f>
+        <v>181.08232492997197</v>
       </c>
       <c r="I35">
-        <v>28591.589999999997</v>
+        <f>buffer!I35/'Mungiture totali'!C35</f>
+        <v>80.08848739495798</v>
       </c>
       <c r="J35">
-        <v>40733.89</v>
+        <f>buffer!J35/'Mungiture totali'!C35</f>
+        <v>114.10053221288516</v>
       </c>
       <c r="K35">
-        <v>328</v>
+        <f>buffer!K35/'Mungiture totali'!C35</f>
+        <v>0.91876750700280108</v>
       </c>
       <c r="L35">
-        <v>1082</v>
+        <f>buffer!L35/'Mungiture totali'!C35</f>
+        <v>3.0308123249299719</v>
       </c>
       <c r="M35">
-        <v>4589</v>
+        <f>buffer!M35/'Mungiture totali'!C35</f>
+        <v>12.854341736694678</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1">
-        <v>11</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36">
         <f>buffer!C36/'Mungiture totali'!C36</f>
         <v>98.147555555555556</v>
       </c>
       <c r="D36">
-        <v>18600</v>
+        <f>buffer!D36/'Mungiture totali'!C36</f>
+        <v>28.633333333333333</v>
       </c>
       <c r="E36">
-        <v>70088.03333333334</v>
+        <f>buffer!E36/'Mungiture totali'!C36</f>
+        <v>194.68898148148151</v>
       </c>
       <c r="F36">
-        <v>14634.719999999998</v>
+        <f>buffer!F36/'Mungiture totali'!C36</f>
+        <v>40.651999999999994</v>
       </c>
       <c r="G36">
-        <v>260468</v>
+        <f>buffer!G36/'Mungiture totali'!C36</f>
+        <v>723.52222222222224</v>
       </c>
       <c r="H36">
-        <v>56242.64</v>
+        <f>buffer!H36/'Mungiture totali'!C36</f>
+        <v>156.22955555555555</v>
       </c>
       <c r="I36">
-        <v>25344.73</v>
+        <f>buffer!I36/'Mungiture totali'!C36</f>
+        <v>70.402027777777775</v>
       </c>
       <c r="J36">
-        <v>35333.120000000003</v>
+        <f>buffer!J36/'Mungiture totali'!C36</f>
+        <v>98.147555555555556</v>
       </c>
       <c r="K36">
-        <v>411</v>
+        <f>buffer!K36/'Mungiture totali'!C36</f>
+        <v>1.1416666666666666</v>
       </c>
       <c r="L36">
-        <v>1057</v>
+        <f>buffer!L36/'Mungiture totali'!C36</f>
+        <v>2.9361111111111109</v>
       </c>
       <c r="M36">
-        <v>4528</v>
+        <f>buffer!M36/'Mungiture totali'!C36</f>
+        <v>12.577777777777778</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1">
-        <v>12</v>
-      </c>
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37">
         <f>buffer!C37/'Mungiture totali'!C37</f>
         <v>94.491675675675666</v>
       </c>
       <c r="D37">
-        <v>24013</v>
+        <f>buffer!D37/'Mungiture totali'!C37</f>
+        <v>26.491891891891893</v>
       </c>
       <c r="E37">
-        <v>64946.333333333343</v>
+        <f>buffer!E37/'Mungiture totali'!C37</f>
+        <v>175.53063063063067</v>
       </c>
       <c r="F37">
-        <v>14463.78</v>
+        <f>buffer!F37/'Mungiture totali'!C37</f>
+        <v>39.091297297297302</v>
       </c>
       <c r="G37">
-        <v>314791</v>
+        <f>buffer!G37/'Mungiture totali'!C37</f>
+        <v>850.78648648648652</v>
       </c>
       <c r="H37">
-        <v>58053.84</v>
+        <f>buffer!H37/'Mungiture totali'!C37</f>
+        <v>156.90227027027026</v>
       </c>
       <c r="I37">
-        <v>24851.25</v>
+        <f>buffer!I37/'Mungiture totali'!C37</f>
+        <v>67.165540540540547</v>
       </c>
       <c r="J37">
-        <v>34961.919999999998</v>
+        <f>buffer!J37/'Mungiture totali'!C37</f>
+        <v>94.491675675675666</v>
       </c>
       <c r="K37">
-        <v>419</v>
+        <f>buffer!K37/'Mungiture totali'!C37</f>
+        <v>1.1324324324324324</v>
       </c>
       <c r="L37">
-        <v>1090</v>
+        <f>buffer!L37/'Mungiture totali'!C37</f>
+        <v>2.9459459459459461</v>
       </c>
       <c r="M37">
-        <v>4306</v>
+        <f>buffer!M37/'Mungiture totali'!C37</f>
+        <v>11.637837837837838</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38">
         <f>buffer!C38/'Mungiture totali'!C38</f>
         <v>121.31626229508197</v>
       </c>
       <c r="D38">
-        <v>506499</v>
+        <f>buffer!D38/'Mungiture totali'!C38</f>
+        <v>31.636065573770491</v>
       </c>
       <c r="E38">
-        <v>62548.55</v>
+        <f>buffer!E38/'Mungiture totali'!C38</f>
+        <v>205.0772131147541</v>
       </c>
       <c r="F38">
-        <v>15767.52</v>
+        <f>buffer!F38/'Mungiture totali'!C38</f>
+        <v>51.696786885245906</v>
       </c>
       <c r="G38">
-        <v>509833</v>
+        <f>buffer!G38/'Mungiture totali'!C38</f>
+        <v>1671.5836065573772</v>
       </c>
       <c r="H38">
-        <v>70009.010000000009</v>
+        <f>buffer!H38/'Mungiture totali'!C38</f>
+        <v>229.53773770491807</v>
       </c>
       <c r="I38">
-        <v>26670.11</v>
+        <f>buffer!I38/'Mungiture totali'!C38</f>
+        <v>87.442983606557377</v>
       </c>
       <c r="J38">
-        <v>37001.46</v>
+        <f>buffer!J38/'Mungiture totali'!C38</f>
+        <v>121.31626229508197</v>
       </c>
       <c r="K38">
-        <v>656</v>
+        <f>buffer!K38/'Mungiture totali'!C38</f>
+        <v>2.1508196721311474</v>
       </c>
       <c r="L38">
-        <v>1030</v>
+        <f>buffer!L38/'Mungiture totali'!C38</f>
+        <v>3.377049180327869</v>
       </c>
       <c r="M38">
-        <v>4116</v>
+        <f>buffer!M38/'Mungiture totali'!C38</f>
+        <v>13.495081967213114</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39">
         <f>buffer!C39/'Mungiture totali'!C39</f>
         <v>144.94366336633664</v>
       </c>
       <c r="D39">
-        <v>896985</v>
+        <f>buffer!D39/'Mungiture totali'!C39</f>
+        <v>34.148514851485146</v>
       </c>
       <c r="E39">
-        <v>68437.566666666666</v>
+        <f>buffer!E39/'Mungiture totali'!C39</f>
+        <v>225.86655665566556</v>
       </c>
       <c r="F39">
-        <v>17448.36</v>
+        <f>buffer!F39/'Mungiture totali'!C39</f>
+        <v>57.585346534653468</v>
       </c>
       <c r="G39">
-        <v>377165</v>
+        <f>buffer!G39/'Mungiture totali'!C39</f>
+        <v>1244.7689768976898</v>
       </c>
       <c r="H39">
-        <v>79517.75</v>
+        <f>buffer!H39/'Mungiture totali'!C39</f>
+        <v>262.4348184818482</v>
       </c>
       <c r="I39">
-        <v>30271.18</v>
+        <f>buffer!I39/'Mungiture totali'!C39</f>
+        <v>99.904884488448843</v>
       </c>
       <c r="J39">
-        <v>43917.93</v>
+        <f>buffer!J39/'Mungiture totali'!C39</f>
+        <v>144.94366336633664</v>
       </c>
       <c r="K39">
-        <v>612</v>
+        <f>buffer!K39/'Mungiture totali'!C39</f>
+        <v>2.0198019801980198</v>
       </c>
       <c r="L39">
-        <v>884</v>
+        <f>buffer!L39/'Mungiture totali'!C39</f>
+        <v>2.9174917491749173</v>
       </c>
       <c r="M39">
-        <v>3304</v>
+        <f>buffer!M39/'Mungiture totali'!C39</f>
+        <v>10.904290429042904</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5"/>
       <c r="C40">
         <f>buffer!C40/'Mungiture totali'!C40</f>
         <v>168.97467105263158</v>
       </c>
       <c r="D40">
-        <v>593880</v>
+        <f>buffer!D40/'Mungiture totali'!C40</f>
+        <v>40.496710526315788</v>
       </c>
       <c r="E40">
-        <v>82593.583333333328</v>
+        <f>buffer!E40/'Mungiture totali'!C40</f>
+        <v>271.68941885964909</v>
       </c>
       <c r="F40">
-        <v>19948.260000000002</v>
+        <f>buffer!F40/'Mungiture totali'!C40</f>
+        <v>65.619276315789477</v>
       </c>
       <c r="G40">
-        <v>505975</v>
+        <f>buffer!G40/'Mungiture totali'!C40</f>
+        <v>1664.391447368421</v>
       </c>
       <c r="H40">
-        <v>87576.43</v>
+        <f>buffer!H40/'Mungiture totali'!C40</f>
+        <v>288.08036184210522</v>
       </c>
       <c r="I40">
-        <v>34963.360000000001</v>
+        <f>buffer!I40/'Mungiture totali'!C40</f>
+        <v>115.01105263157895</v>
       </c>
       <c r="J40">
-        <v>51368.3</v>
+        <f>buffer!J40/'Mungiture totali'!C40</f>
+        <v>168.97467105263158</v>
       </c>
       <c r="K40">
-        <v>968</v>
+        <f>buffer!K40/'Mungiture totali'!C40</f>
+        <v>3.1842105263157894</v>
       </c>
       <c r="L40">
-        <v>1054</v>
+        <f>buffer!L40/'Mungiture totali'!C40</f>
+        <v>3.4671052631578947</v>
       </c>
       <c r="M40">
-        <v>4169</v>
+        <f>buffer!M40/'Mungiture totali'!C40</f>
+        <v>13.713815789473685</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5"/>
       <c r="C41">
         <f>buffer!C41/'Mungiture totali'!C41</f>
         <v>157.87645695364239</v>
       </c>
       <c r="D41">
-        <v>111916</v>
+        <f>buffer!D41/'Mungiture totali'!C41</f>
+        <v>41.278145695364238</v>
       </c>
       <c r="E41">
-        <v>85093.983333333337</v>
+        <f>buffer!E41/'Mungiture totali'!C41</f>
+        <v>281.76815673289184</v>
       </c>
       <c r="F41">
-        <v>17907.120000000003</v>
+        <f>buffer!F41/'Mungiture totali'!C41</f>
+        <v>59.295099337748354</v>
       </c>
       <c r="G41">
-        <v>341136</v>
+        <f>buffer!G41/'Mungiture totali'!C41</f>
+        <v>1129.5894039735099</v>
       </c>
       <c r="H41">
-        <v>78489.77</v>
+        <f>buffer!H41/'Mungiture totali'!C41</f>
+        <v>259.8999006622517</v>
       </c>
       <c r="I41">
-        <v>32154.22</v>
+        <f>buffer!I41/'Mungiture totali'!C41</f>
+        <v>106.47092715231788</v>
       </c>
       <c r="J41">
-        <v>47678.69</v>
+        <f>buffer!J41/'Mungiture totali'!C41</f>
+        <v>157.87645695364239</v>
       </c>
       <c r="K41">
-        <v>1558</v>
+        <f>buffer!K41/'Mungiture totali'!C41</f>
+        <v>5.1589403973509933</v>
       </c>
       <c r="L41">
-        <v>950</v>
+        <f>buffer!L41/'Mungiture totali'!C41</f>
+        <v>3.1456953642384105</v>
       </c>
       <c r="M41">
-        <v>4086</v>
+        <f>buffer!M41/'Mungiture totali'!C41</f>
+        <v>13.52980132450331</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42">
         <f>buffer!C42/'Mungiture totali'!C42</f>
         <v>102.03244299674267</v>
       </c>
       <c r="D42">
-        <v>109433</v>
+        <f>buffer!D42/'Mungiture totali'!C42</f>
+        <v>25.45602605863192</v>
       </c>
       <c r="E42">
-        <v>54187.633333333331</v>
+        <f>buffer!E42/'Mungiture totali'!C42</f>
+        <v>176.50694896851249</v>
       </c>
       <c r="F42">
-        <v>11347.380000000001</v>
+        <f>buffer!F42/'Mungiture totali'!C42</f>
+        <v>36.962149837133552</v>
       </c>
       <c r="G42">
-        <v>260039</v>
+        <f>buffer!G42/'Mungiture totali'!C42</f>
+        <v>847.0325732899023</v>
       </c>
       <c r="H42">
-        <v>49216.490000000005</v>
+        <f>buffer!H42/'Mungiture totali'!C42</f>
+        <v>160.31429967426712</v>
       </c>
       <c r="I42">
-        <v>20702.66</v>
+        <f>buffer!I42/'Mungiture totali'!C42</f>
+        <v>67.435374592833881</v>
       </c>
       <c r="J42">
-        <v>31323.960000000003</v>
+        <f>buffer!J42/'Mungiture totali'!C42</f>
+        <v>102.03244299674267</v>
       </c>
       <c r="K42">
-        <v>908</v>
+        <f>buffer!K42/'Mungiture totali'!C42</f>
+        <v>2.9576547231270358</v>
       </c>
       <c r="L42">
-        <v>638</v>
+        <f>buffer!L42/'Mungiture totali'!C42</f>
+        <v>2.0781758957654723</v>
       </c>
       <c r="M42">
-        <v>2538</v>
+        <f>buffer!M42/'Mungiture totali'!C42</f>
+        <v>8.2671009771986963</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43">
         <f>buffer!C43/'Mungiture totali'!C43</f>
         <v>30.598157894736843</v>
       </c>
       <c r="D43">
-        <v>98458</v>
+        <f>buffer!D43/'Mungiture totali'!C43</f>
+        <v>7.6578947368421053</v>
       </c>
       <c r="E43">
-        <v>15692.4</v>
+        <f>buffer!E43/'Mungiture totali'!C43</f>
+        <v>51.619736842105262</v>
       </c>
       <c r="F43">
-        <v>3601.5</v>
+        <f>buffer!F43/'Mungiture totali'!C43</f>
+        <v>11.847039473684211</v>
       </c>
       <c r="G43">
-        <v>84602</v>
+        <f>buffer!G43/'Mungiture totali'!C43</f>
+        <v>278.29605263157896</v>
       </c>
       <c r="H43">
-        <v>16228.560000000001</v>
+        <f>buffer!H43/'Mungiture totali'!C43</f>
+        <v>53.383421052631583</v>
       </c>
       <c r="I43">
-        <v>6352.69</v>
+        <f>buffer!I43/'Mungiture totali'!C43</f>
+        <v>20.897006578947366</v>
       </c>
       <c r="J43">
-        <v>9301.84</v>
+        <f>buffer!J43/'Mungiture totali'!C43</f>
+        <v>30.598157894736843</v>
       </c>
       <c r="K43">
-        <v>187</v>
+        <f>buffer!K43/'Mungiture totali'!C43</f>
+        <v>0.61513157894736847</v>
       </c>
       <c r="L43">
-        <v>202</v>
+        <f>buffer!L43/'Mungiture totali'!C43</f>
+        <v>0.66447368421052633</v>
       </c>
       <c r="M43">
-        <v>788</v>
+        <f>buffer!M43/'Mungiture totali'!C43</f>
+        <v>2.5921052631578947</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="1">
-        <v>7</v>
-      </c>
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44">
         <f>buffer!C44/'Mungiture totali'!C44</f>
         <v>30.757847682119209</v>
       </c>
       <c r="D44">
-        <v>103500</v>
+        <f>buffer!D44/'Mungiture totali'!C44</f>
+        <v>7.8278145695364234</v>
       </c>
       <c r="E44">
-        <v>15848.48333333333</v>
+        <f>buffer!E44/'Mungiture totali'!C44</f>
+        <v>52.478421633554071</v>
       </c>
       <c r="F44">
-        <v>3685.8599999999997</v>
+        <f>buffer!F44/'Mungiture totali'!C44</f>
+        <v>12.204834437086092</v>
       </c>
       <c r="G44">
-        <v>99074</v>
+        <f>buffer!G44/'Mungiture totali'!C44</f>
+        <v>328.05960264900665</v>
       </c>
       <c r="H44">
-        <v>16324.35</v>
+        <f>buffer!H44/'Mungiture totali'!C44</f>
+        <v>54.054139072847683</v>
       </c>
       <c r="I44">
-        <v>6437.1</v>
+        <f>buffer!I44/'Mungiture totali'!C44</f>
+        <v>21.314900662251656</v>
       </c>
       <c r="J44">
-        <v>9288.869999999999</v>
+        <f>buffer!J44/'Mungiture totali'!C44</f>
+        <v>30.757847682119202</v>
       </c>
       <c r="K44">
-        <v>175</v>
+        <f>buffer!K44/'Mungiture totali'!C44</f>
+        <v>0.57947019867549665</v>
       </c>
       <c r="L44">
-        <v>198</v>
+        <f>buffer!L44/'Mungiture totali'!C44</f>
+        <v>0.6556291390728477</v>
       </c>
       <c r="M44">
-        <v>862</v>
+        <f>buffer!M44/'Mungiture totali'!C44</f>
+        <v>2.8543046357615895</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="1">
-        <v>8</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45">
         <f>buffer!C45/'Mungiture totali'!C45</f>
         <v>32.005201342281879</v>
       </c>
       <c r="D45">
-        <v>105691</v>
+        <f>buffer!D45/'Mungiture totali'!C45</f>
+        <v>7.9093959731543624</v>
       </c>
       <c r="E45">
-        <v>16017.63333333333</v>
+        <f>buffer!E45/'Mungiture totali'!C45</f>
+        <v>53.750447427293054</v>
       </c>
       <c r="F45">
-        <v>3700.0200000000004</v>
+        <f>buffer!F45/'Mungiture totali'!C45</f>
+        <v>12.416174496644297</v>
       </c>
       <c r="G45">
-        <v>62498</v>
+        <f>buffer!G45/'Mungiture totali'!C45</f>
+        <v>209.72483221476509</v>
       </c>
       <c r="H45">
-        <v>16437.740000000002</v>
+        <f>buffer!H45/'Mungiture totali'!C45</f>
+        <v>55.160201342281887</v>
       </c>
       <c r="I45">
-        <v>6503.45</v>
+        <f>buffer!I45/'Mungiture totali'!C45</f>
+        <v>21.823657718120806</v>
       </c>
       <c r="J45">
-        <v>9537.5499999999993</v>
+        <f>buffer!J45/'Mungiture totali'!C45</f>
+        <v>32.005201342281879</v>
       </c>
       <c r="K45">
-        <v>208</v>
+        <f>buffer!K45/'Mungiture totali'!C45</f>
+        <v>0.69798657718120805</v>
       </c>
       <c r="L45">
-        <v>184</v>
+        <f>buffer!L45/'Mungiture totali'!C45</f>
+        <v>0.6174496644295302</v>
       </c>
       <c r="M45">
-        <v>767</v>
+        <f>buffer!M45/'Mungiture totali'!C45</f>
+        <v>2.5738255033557045</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="1">
-        <v>9</v>
-      </c>
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46">
         <f>buffer!C46/'Mungiture totali'!C46</f>
         <v>31.156333333333333</v>
       </c>
       <c r="D46">
-        <v>112317</v>
+        <f>buffer!D46/'Mungiture totali'!C46</f>
+        <v>7.98</v>
       </c>
       <c r="E46">
-        <v>16066.61666666667</v>
+        <f>buffer!E46/'Mungiture totali'!C46</f>
+        <v>53.555388888888899</v>
       </c>
       <c r="F46">
-        <v>3759.54</v>
+        <f>buffer!F46/'Mungiture totali'!C46</f>
+        <v>12.5318</v>
       </c>
       <c r="G46">
-        <v>102653</v>
+        <f>buffer!G46/'Mungiture totali'!C46</f>
+        <v>342.17666666666668</v>
       </c>
       <c r="H46">
-        <v>16627.53</v>
+        <f>buffer!H46/'Mungiture totali'!C46</f>
+        <v>55.425099999999993</v>
       </c>
       <c r="I46">
-        <v>6494.5499999999993</v>
+        <f>buffer!I46/'Mungiture totali'!C46</f>
+        <v>21.648499999999999</v>
       </c>
       <c r="J46">
-        <v>9346.9</v>
+        <f>buffer!J46/'Mungiture totali'!C46</f>
+        <v>31.156333333333333</v>
       </c>
       <c r="K46">
-        <v>218</v>
+        <f>buffer!K46/'Mungiture totali'!C46</f>
+        <v>0.72666666666666668</v>
       </c>
       <c r="L46">
-        <v>177</v>
+        <f>buffer!L46/'Mungiture totali'!C46</f>
+        <v>0.59</v>
       </c>
       <c r="M46">
-        <v>823</v>
+        <f>buffer!M46/'Mungiture totali'!C46</f>
+        <v>2.7433333333333332</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="1">
-        <v>10</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47">
         <f>buffer!C47/'Mungiture totali'!C47</f>
         <v>32.07689189189189</v>
       </c>
       <c r="D47">
-        <v>111600</v>
+        <f>buffer!D47/'Mungiture totali'!C47</f>
+        <v>8.0979729729729737</v>
       </c>
       <c r="E47">
-        <v>15834.58333333333</v>
+        <f>buffer!E47/'Mungiture totali'!C47</f>
+        <v>53.495213963963955</v>
       </c>
       <c r="F47">
-        <v>3737.8200000000006</v>
+        <f>buffer!F47/'Mungiture totali'!C47</f>
+        <v>12.627770270270272</v>
       </c>
       <c r="G47">
-        <v>100795</v>
+        <f>buffer!G47/'Mungiture totali'!C47</f>
+        <v>340.52364864864865</v>
       </c>
       <c r="H47">
-        <v>16621.75</v>
+        <f>buffer!H47/'Mungiture totali'!C47</f>
+        <v>56.154560810810814</v>
       </c>
       <c r="I47">
-        <v>6505.73</v>
+        <f>buffer!I47/'Mungiture totali'!C47</f>
+        <v>21.978817567567567</v>
       </c>
       <c r="J47">
-        <v>9494.76</v>
+        <f>buffer!J47/'Mungiture totali'!C47</f>
+        <v>32.07689189189189</v>
       </c>
       <c r="K47">
-        <v>180</v>
+        <f>buffer!K47/'Mungiture totali'!C47</f>
+        <v>0.60810810810810811</v>
       </c>
       <c r="L47">
-        <v>184</v>
+        <f>buffer!L47/'Mungiture totali'!C47</f>
+        <v>0.6216216216216216</v>
       </c>
       <c r="M47">
-        <v>835</v>
+        <f>buffer!M47/'Mungiture totali'!C47</f>
+        <v>2.8209459459459461</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="1">
-        <v>11</v>
-      </c>
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48">
         <f>buffer!C48/'Mungiture totali'!C48</f>
         <v>32.205118644067795</v>
       </c>
       <c r="D48">
-        <v>113281</v>
+        <f>buffer!D48/'Mungiture totali'!C48</f>
+        <v>7.9152542372881358</v>
       </c>
       <c r="E48">
-        <v>15716.33333333333</v>
+        <f>buffer!E48/'Mungiture totali'!C48</f>
+        <v>53.275706214689258</v>
       </c>
       <c r="F48">
-        <v>3664.86</v>
+        <f>buffer!F48/'Mungiture totali'!C48</f>
+        <v>12.423254237288136</v>
       </c>
       <c r="G48">
-        <v>101076</v>
+        <f>buffer!G48/'Mungiture totali'!C48</f>
+        <v>342.63050847457629</v>
       </c>
       <c r="H48">
-        <v>16254.48</v>
+        <f>buffer!H48/'Mungiture totali'!C48</f>
+        <v>55.099932203389827</v>
       </c>
       <c r="I48">
-        <v>6450.8700000000008</v>
+        <f>buffer!I48/'Mungiture totali'!C48</f>
+        <v>21.867355932203392</v>
       </c>
       <c r="J48">
-        <v>9500.51</v>
+        <f>buffer!J48/'Mungiture totali'!C48</f>
+        <v>32.205118644067795</v>
       </c>
       <c r="K48">
-        <v>193</v>
+        <f>buffer!K48/'Mungiture totali'!C48</f>
+        <v>0.65423728813559323</v>
       </c>
       <c r="L48">
-        <v>184</v>
+        <f>buffer!L48/'Mungiture totali'!C48</f>
+        <v>0.62372881355932208</v>
       </c>
       <c r="M48">
-        <v>700</v>
+        <f>buffer!M48/'Mungiture totali'!C48</f>
+        <v>2.3728813559322033</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="1">
-        <v>12</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49">
         <f>buffer!C49/'Mungiture totali'!C49</f>
         <v>32.277373737373736</v>
       </c>
       <c r="D49">
-        <v>118242</v>
+        <f>buffer!D49/'Mungiture totali'!C49</f>
+        <v>8.0168350168350173</v>
       </c>
       <c r="E49">
-        <v>15957.816666666669</v>
+        <f>buffer!E49/'Mungiture totali'!C49</f>
+        <v>53.730022446689119</v>
       </c>
       <c r="F49">
-        <v>3724.6800000000003</v>
+        <f>buffer!F49/'Mungiture totali'!C49</f>
+        <v>12.541010101010102</v>
       </c>
       <c r="G49">
-        <v>161226</v>
+        <f>buffer!G49/'Mungiture totali'!C49</f>
+        <v>542.84848484848487</v>
       </c>
       <c r="H49">
-        <v>16419.560000000001</v>
+        <f>buffer!H49/'Mungiture totali'!C49</f>
+        <v>55.28471380471381</v>
       </c>
       <c r="I49">
-        <v>6517.18</v>
+        <f>buffer!I49/'Mungiture totali'!C49</f>
+        <v>21.943367003367005</v>
       </c>
       <c r="J49">
-        <v>9586.3799999999992</v>
+        <f>buffer!J49/'Mungiture totali'!C49</f>
+        <v>32.277373737373736</v>
       </c>
       <c r="K49">
-        <v>216</v>
+        <f>buffer!K49/'Mungiture totali'!C49</f>
+        <v>0.72727272727272729</v>
       </c>
       <c r="L49">
-        <v>196</v>
+        <f>buffer!L49/'Mungiture totali'!C49</f>
+        <v>0.65993265993265993</v>
       </c>
       <c r="M49">
-        <v>830</v>
+        <f>buffer!M49/'Mungiture totali'!C49</f>
+        <v>2.7946127946127945</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
+  <mergeCells count="48">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13657,8 +14457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13A6435-546C-497B-A908-22F14A83FC6E}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13692,42 +14492,40 @@
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2">
         <f>buffer!C2/'Mungiture totali'!C2</f>
         <v>36.043137931034487</v>
       </c>
       <c r="D2">
         <f>buffer!D2/'Mungiture totali'!D2</f>
-        <v>1.6428309497616429</v>
+        <v>0.98313164649798312</v>
       </c>
       <c r="E2">
         <f>buffer!E2/'Mungiture totali'!D2</f>
@@ -13767,17 +14565,17 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3">
         <f>buffer!C3/'Mungiture totali'!C3</f>
         <v>30.941003460207614</v>
       </c>
       <c r="D3">
         <f>buffer!D3/'Mungiture totali'!D3</f>
-        <v>1.6817010309278351</v>
+        <v>0.98754295532646053</v>
       </c>
       <c r="E3">
         <f>buffer!E3/'Mungiture totali'!D3</f>
@@ -13817,17 +14615,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4">
         <f>buffer!C4/'Mungiture totali'!C4</f>
         <v>30.375172413793102</v>
       </c>
       <c r="D4">
         <f>buffer!D4/'Mungiture totali'!D4</f>
-        <v>1.6627348186981215</v>
+        <v>0.98864132809086935</v>
       </c>
       <c r="E4">
         <f>buffer!E4/'Mungiture totali'!D4</f>
@@ -13867,17 +14665,17 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5">
         <f>buffer!C5/'Mungiture totali'!C5</f>
         <v>30.692768166089962</v>
       </c>
       <c r="D5">
         <f>buffer!D5/'Mungiture totali'!D5</f>
-        <v>1.6198382290336313</v>
+        <v>0.96040868454661554</v>
       </c>
       <c r="E5">
         <f>buffer!E5/'Mungiture totali'!D5</f>
@@ -13917,17 +14715,17 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6">
         <f>buffer!C6/'Mungiture totali'!C6</f>
         <v>95.506103448275866</v>
       </c>
       <c r="D6">
         <f>buffer!D6/'Mungiture totali'!D6</f>
-        <v>1.7342461925387733</v>
+        <v>0.98309347491965904</v>
       </c>
       <c r="E6">
         <f>buffer!E6/'Mungiture totali'!D6</f>
@@ -13967,17 +14765,17 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <f>buffer!C7/'Mungiture totali'!C7</f>
         <v>143.38748251748251</v>
       </c>
       <c r="D7">
         <f>buffer!D7/'Mungiture totali'!D7</f>
-        <v>1.6967082434586889</v>
+        <v>0.98096220575822934</v>
       </c>
       <c r="E7">
         <f>buffer!E7/'Mungiture totali'!D7</f>
@@ -14017,17 +14815,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
         <f>buffer!C8/'Mungiture totali'!C8</f>
         <v>164.37090592334494</v>
       </c>
       <c r="D8">
         <f>buffer!D8/'Mungiture totali'!D8</f>
-        <v>1.6324431769077867</v>
+        <v>0.98323394693630628</v>
       </c>
       <c r="E8">
         <f>buffer!E8/'Mungiture totali'!D8</f>
@@ -14067,17 +14865,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <f>buffer!C9/'Mungiture totali'!C9</f>
         <v>175.97414893617022</v>
       </c>
       <c r="D9">
         <f>buffer!D9/'Mungiture totali'!D9</f>
-        <v>1.6225478610257622</v>
+        <v>0.97644370913101708</v>
       </c>
       <c r="E9">
         <f>buffer!E9/'Mungiture totali'!D9</f>
@@ -14117,17 +14915,17 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10">
         <f>buffer!C10/'Mungiture totali'!C10</f>
         <v>144.51414893617022</v>
       </c>
       <c r="D10">
         <f>buffer!D10/'Mungiture totali'!D10</f>
-        <v>1.636030422431962</v>
+        <v>0.97663337304132691</v>
       </c>
       <c r="E10">
         <f>buffer!E10/'Mungiture totali'!D10</f>
@@ -14167,17 +14965,17 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11">
         <f>buffer!C11/'Mungiture totali'!C11</f>
         <v>29.935159010600707</v>
       </c>
       <c r="D11">
         <f>buffer!D11/'Mungiture totali'!D11</f>
-        <v>1.6665207877461707</v>
+        <v>0.98074398249452954</v>
       </c>
       <c r="E11">
         <f>buffer!E11/'Mungiture totali'!D11</f>
@@ -14217,17 +15015,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12">
         <f>buffer!C12/'Mungiture totali'!C12</f>
         <v>34.808245614035087</v>
       </c>
       <c r="D12">
         <f>buffer!D12/'Mungiture totali'!D12</f>
-        <v>1.63989732306564</v>
+        <v>0.97249724972497253</v>
       </c>
       <c r="E12">
         <f>buffer!E12/'Mungiture totali'!D12</f>
@@ -14267,17 +15065,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13">
         <f>buffer!C13/'Mungiture totali'!C13</f>
         <v>97.698006993006999</v>
       </c>
       <c r="D13">
         <f>buffer!D13/'Mungiture totali'!D13</f>
-        <v>1.666105555005446</v>
+        <v>0.96365976829389044</v>
       </c>
       <c r="E13">
         <f>buffer!E13/'Mungiture totali'!D13</f>
@@ -14317,19 +15115,17 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <f>buffer!C14/'Mungiture totali'!C14</f>
         <v>103.47814404432133</v>
       </c>
       <c r="D14">
         <f>buffer!D14/'Mungiture totali'!D14</f>
-        <v>1.6066918684147029</v>
+        <v>0.9581758224081075</v>
       </c>
       <c r="E14">
         <f>buffer!E14/'Mungiture totali'!D14</f>
@@ -14369,17 +15165,17 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15">
         <f>buffer!C15/'Mungiture totali'!C15</f>
         <v>105.09068681318682</v>
       </c>
       <c r="D15">
         <f>buffer!D15/'Mungiture totali'!D15</f>
-        <v>1.6165016501650165</v>
+        <v>0.94801980198019797</v>
       </c>
       <c r="E15">
         <f>buffer!E15/'Mungiture totali'!D15</f>
@@ -14419,17 +15215,17 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16">
         <f>buffer!C16/'Mungiture totali'!C16</f>
         <v>114.71817174515236</v>
       </c>
       <c r="D16">
         <f>buffer!D16/'Mungiture totali'!D16</f>
-        <v>1.6369792081574126</v>
+        <v>0.94813988687963036</v>
       </c>
       <c r="E16">
         <f>buffer!E16/'Mungiture totali'!D16</f>
@@ -14469,17 +15265,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17">
         <f>buffer!C17/'Mungiture totali'!C17</f>
         <v>132.49680555555554</v>
       </c>
       <c r="D17">
         <f>buffer!D17/'Mungiture totali'!D17</f>
-        <v>1.6278575225943648</v>
+        <v>0.94455836561099715</v>
       </c>
       <c r="E17">
         <f>buffer!E17/'Mungiture totali'!D17</f>
@@ -14519,17 +15315,17 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18">
         <f>buffer!C18/'Mungiture totali'!C18</f>
         <v>153.18264623955432</v>
       </c>
       <c r="D18">
         <f>buffer!D18/'Mungiture totali'!D18</f>
-        <v>1.6252030797485344</v>
+        <v>0.94440912622730799</v>
       </c>
       <c r="E18">
         <f>buffer!E18/'Mungiture totali'!D18</f>
@@ -14569,17 +15365,17 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19">
         <f>buffer!C19/'Mungiture totali'!C19</f>
         <v>153.60398328690809</v>
       </c>
       <c r="D19">
         <f>buffer!D19/'Mungiture totali'!D19</f>
-        <v>1.5335539092282242</v>
+        <v>0.94094799683521546</v>
       </c>
       <c r="E19">
         <f>buffer!E19/'Mungiture totali'!D19</f>
@@ -14619,17 +15415,17 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20">
         <f>buffer!C20/'Mungiture totali'!C20</f>
         <v>174.66551532033426</v>
       </c>
       <c r="D20">
         <f>buffer!D20/'Mungiture totali'!D20</f>
-        <v>1.5661637239165329</v>
+        <v>0.96019261637239162</v>
       </c>
       <c r="E20">
         <f>buffer!E20/'Mungiture totali'!D20</f>
@@ -14669,17 +15465,17 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21">
         <f>buffer!C21/'Mungiture totali'!C21</f>
         <v>169.14963988919666</v>
       </c>
       <c r="D21">
         <f>buffer!D21/'Mungiture totali'!D21</f>
-        <v>1.6037071362372568</v>
+        <v>0.96496756255792404</v>
       </c>
       <c r="E21">
         <f>buffer!E21/'Mungiture totali'!D21</f>
@@ -14719,17 +15515,17 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22">
         <f>buffer!C22/'Mungiture totali'!C22</f>
         <v>150.456338028169</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <f>buffer!D22/'Mungiture totali'!D22</f>
-        <v>1.5754122536533048</v>
+        <v>0.96634937659203646</v>
       </c>
       <c r="E22">
         <f>buffer!E22/'Mungiture totali'!D22</f>
@@ -14769,17 +15565,17 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23">
         <f>buffer!C23/'Mungiture totali'!C23</f>
         <v>59.128816901408449</v>
       </c>
       <c r="D23">
         <f>buffer!D23/'Mungiture totali'!D23</f>
-        <v>1.6139240506329113</v>
+        <v>0.9623584277148568</v>
       </c>
       <c r="E23">
         <f>buffer!E23/'Mungiture totali'!D23</f>
@@ -14819,17 +15615,17 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24">
         <f>buffer!C24/'Mungiture totali'!C24</f>
         <v>126.89299719887956</v>
       </c>
       <c r="D24">
         <f>buffer!D24/'Mungiture totali'!D24</f>
-        <v>1.5664529407108367</v>
+        <v>0.97878571993984009</v>
       </c>
       <c r="E24">
         <f>buffer!E24/'Mungiture totali'!D24</f>
@@ -14869,17 +15665,17 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25">
         <f>buffer!C25/'Mungiture totali'!C25</f>
         <v>124.01790760869564</v>
       </c>
       <c r="D25">
         <f>buffer!D25/'Mungiture totali'!D25</f>
-        <v>1.5718301061836353</v>
+        <v>0.96798875702685816</v>
       </c>
       <c r="E25">
         <f>buffer!E25/'Mungiture totali'!D25</f>
@@ -14919,19 +15715,17 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26">
         <f>buffer!C26/'Mungiture totali'!C26</f>
         <v>127.99605479452055</v>
       </c>
       <c r="D26">
         <f>buffer!D26/'Mungiture totali'!D26</f>
-        <v>1.6718833908707327</v>
+        <v>0.97529727656309939</v>
       </c>
       <c r="E26">
         <f>buffer!E26/'Mungiture totali'!D26</f>
@@ -14971,17 +15765,17 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27">
         <f>buffer!C27/'Mungiture totali'!C27</f>
         <v>46.039207650273219</v>
       </c>
       <c r="D27">
         <f>buffer!D27/'Mungiture totali'!D27</f>
-        <v>1.7299587225722355</v>
+        <v>0.97784053877905719</v>
       </c>
       <c r="E27">
         <f>buffer!E27/'Mungiture totali'!D27</f>
@@ -15021,17 +15815,17 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28">
         <f>buffer!C28/'Mungiture totali'!C28</f>
         <v>46.956011080332409</v>
       </c>
       <c r="D28">
         <f>buffer!D28/'Mungiture totali'!D28</f>
-        <v>1.7451737451737452</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="E28">
         <f>buffer!E28/'Mungiture totali'!D28</f>
@@ -15071,17 +15865,17 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29">
         <f>buffer!C29/'Mungiture totali'!C29</f>
         <v>122.51566298342541</v>
       </c>
       <c r="D29">
         <f>buffer!D29/'Mungiture totali'!D29</f>
-        <v>1.8049749524961134</v>
+        <v>0.98082570392122992</v>
       </c>
       <c r="E29">
         <f>buffer!E29/'Mungiture totali'!D29</f>
@@ -15121,17 +15915,17 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30">
         <f>buffer!C30/'Mungiture totali'!C30</f>
         <v>156.08276243093923</v>
       </c>
       <c r="D30">
         <f>buffer!D30/'Mungiture totali'!D30</f>
-        <v>1.7904179810725551</v>
+        <v>0.98337276550998953</v>
       </c>
       <c r="E30">
         <f>buffer!E30/'Mungiture totali'!D30</f>
@@ -15171,17 +15965,17 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31">
         <f>buffer!C31/'Mungiture totali'!C31</f>
         <v>149.83930747922437</v>
       </c>
       <c r="D31">
         <f>buffer!D31/'Mungiture totali'!D31</f>
-        <v>1.7774007465218866</v>
+        <v>0.98289786223277908</v>
       </c>
       <c r="E31">
         <f>buffer!E31/'Mungiture totali'!D31</f>
@@ -15221,17 +16015,17 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32">
         <f>buffer!C32/'Mungiture totali'!C32</f>
         <v>159.73493112947659</v>
       </c>
       <c r="D32">
         <f>buffer!D32/'Mungiture totali'!D32</f>
-        <v>1.7687827606290041</v>
+        <v>0.97515045622209284</v>
       </c>
       <c r="E32">
         <f>buffer!E32/'Mungiture totali'!D32</f>
@@ -15271,17 +16065,17 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1">
-        <v>8</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33">
         <f>buffer!C33/'Mungiture totali'!C33</f>
         <v>147.27391666666668</v>
       </c>
       <c r="D33">
         <f>buffer!D33/'Mungiture totali'!D33</f>
-        <v>1.7750681294109427</v>
+        <v>0.98183215708196492</v>
       </c>
       <c r="E33">
         <f>buffer!E33/'Mungiture totali'!D33</f>
@@ -15321,17 +16115,17 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5"/>
       <c r="C34">
         <f>buffer!C34/'Mungiture totali'!C34</f>
         <v>127.64317548746519</v>
       </c>
       <c r="D34">
         <f>buffer!D34/'Mungiture totali'!D34</f>
-        <v>1.7854026180087268</v>
+        <v>0.98064260214200716</v>
       </c>
       <c r="E34">
         <f>buffer!E34/'Mungiture totali'!D34</f>
@@ -15371,17 +16165,17 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1">
-        <v>10</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35">
         <f>buffer!C35/'Mungiture totali'!C35</f>
         <v>114.10053221288516</v>
       </c>
       <c r="D35">
         <f>buffer!D35/'Mungiture totali'!D35</f>
-        <v>1.8140088405304318</v>
+        <v>0.98418905134308055</v>
       </c>
       <c r="E35">
         <f>buffer!E35/'Mungiture totali'!D35</f>
@@ -15421,17 +16215,17 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1">
-        <v>11</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36">
         <f>buffer!C36/'Mungiture totali'!C36</f>
         <v>98.147555555555556</v>
       </c>
       <c r="D36">
         <f>buffer!D36/'Mungiture totali'!D36</f>
-        <v>1.7532283909887831</v>
+        <v>0.97162786313507399</v>
       </c>
       <c r="E36">
         <f>buffer!E36/'Mungiture totali'!D36</f>
@@ -15471,17 +16265,17 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1">
-        <v>12</v>
-      </c>
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37">
         <f>buffer!C37/'Mungiture totali'!C37</f>
         <v>94.491675675675666</v>
       </c>
       <c r="D37">
         <f>buffer!D37/'Mungiture totali'!D37</f>
-        <v>2.3765835312747425</v>
+        <v>0.97011084718923202</v>
       </c>
       <c r="E37">
         <f>buffer!E37/'Mungiture totali'!D37</f>
@@ -15521,19 +16315,17 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38">
         <f>buffer!C38/'Mungiture totali'!C38</f>
         <v>121.31626229508197</v>
       </c>
       <c r="D38">
         <f>buffer!D38/'Mungiture totali'!D38</f>
-        <v>51.042930565353217</v>
+        <v>0.97238738284792903</v>
       </c>
       <c r="E38">
         <f>buffer!E38/'Mungiture totali'!D38</f>
@@ -15573,17 +16365,17 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39">
         <f>buffer!C39/'Mungiture totali'!C39</f>
         <v>144.94366336633664</v>
       </c>
       <c r="D39">
         <f>buffer!D39/'Mungiture totali'!D39</f>
-        <v>84.263503992484729</v>
+        <v>0.97200563644903715</v>
       </c>
       <c r="E39">
         <f>buffer!E39/'Mungiture totali'!D39</f>
@@ -15623,17 +16415,17 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5"/>
       <c r="C40">
         <f>buffer!C40/'Mungiture totali'!C40</f>
         <v>168.97467105263158</v>
       </c>
       <c r="D40">
         <f>buffer!D40/'Mungiture totali'!D40</f>
-        <v>47.099690697121105</v>
+        <v>0.97636608771512412</v>
       </c>
       <c r="E40">
         <f>buffer!E40/'Mungiture totali'!D40</f>
@@ -15673,17 +16465,17 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5"/>
       <c r="C41">
         <f>buffer!C41/'Mungiture totali'!C41</f>
         <v>157.87645695364239</v>
       </c>
       <c r="D41">
         <f>buffer!D41/'Mungiture totali'!D41</f>
-        <v>8.7749725576289794</v>
+        <v>0.97741884898855258</v>
       </c>
       <c r="E41">
         <f>buffer!E41/'Mungiture totali'!D41</f>
@@ -15723,17 +16515,17 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42">
         <f>buffer!C42/'Mungiture totali'!C42</f>
         <v>102.03244299674267</v>
       </c>
       <c r="D42">
         <f>buffer!D42/'Mungiture totali'!D42</f>
-        <v>13.570560515873016</v>
+        <v>0.96912202380952384</v>
       </c>
       <c r="E42">
         <f>buffer!E42/'Mungiture totali'!D42</f>
@@ -15773,17 +16565,17 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43">
         <f>buffer!C43/'Mungiture totali'!C43</f>
         <v>30.598157894736843</v>
       </c>
       <c r="D43">
         <f>buffer!D43/'Mungiture totali'!D43</f>
-        <v>41.35153296934061</v>
+        <v>0.97774044519109615</v>
       </c>
       <c r="E43">
         <f>buffer!E43/'Mungiture totali'!D43</f>
@@ -15823,17 +16615,17 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="1">
-        <v>7</v>
-      </c>
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44">
         <f>buffer!C44/'Mungiture totali'!C44</f>
         <v>30.757847682119209</v>
       </c>
       <c r="D44">
         <f>buffer!D44/'Mungiture totali'!D44</f>
-        <v>42.821679768307817</v>
+        <v>0.97807199007033507</v>
       </c>
       <c r="E44">
         <f>buffer!E44/'Mungiture totali'!D44</f>
@@ -15873,17 +16665,17 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="1">
-        <v>8</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45">
         <f>buffer!C45/'Mungiture totali'!C45</f>
         <v>32.005201342281879</v>
       </c>
       <c r="D45">
         <f>buffer!D45/'Mungiture totali'!D45</f>
-        <v>43.673966942148759</v>
+        <v>0.97396694214876034</v>
       </c>
       <c r="E45">
         <f>buffer!E45/'Mungiture totali'!D45</f>
@@ -15923,17 +16715,17 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="1">
-        <v>9</v>
-      </c>
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46">
         <f>buffer!C46/'Mungiture totali'!C46</f>
         <v>31.156333333333333</v>
       </c>
       <c r="D46">
         <f>buffer!D46/'Mungiture totali'!D46</f>
-        <v>45.694467046379167</v>
+        <v>0.97396257119609442</v>
       </c>
       <c r="E46">
         <f>buffer!E46/'Mungiture totali'!D46</f>
@@ -15973,17 +16765,17 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="1">
-        <v>10</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47">
         <f>buffer!C47/'Mungiture totali'!C47</f>
         <v>32.07689189189189</v>
       </c>
       <c r="D47">
         <f>buffer!D47/'Mungiture totali'!D47</f>
-        <v>45.606865549652639</v>
+        <v>0.97956681651001221</v>
       </c>
       <c r="E47">
         <f>buffer!E47/'Mungiture totali'!D47</f>
@@ -16023,17 +16815,17 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="1">
-        <v>11</v>
-      </c>
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48">
         <f>buffer!C48/'Mungiture totali'!C48</f>
         <v>32.205118644067795</v>
       </c>
       <c r="D48">
         <f>buffer!D48/'Mungiture totali'!D48</f>
-        <v>47.3187134502924</v>
+        <v>0.97535505430242275</v>
       </c>
       <c r="E48">
         <f>buffer!E48/'Mungiture totali'!D48</f>
@@ -16073,17 +16865,17 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="1">
-        <v>12</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49">
         <f>buffer!C49/'Mungiture totali'!C49</f>
         <v>32.277373737373736</v>
       </c>
       <c r="D49">
         <f>buffer!D49/'Mungiture totali'!D49</f>
-        <v>48.579293344289233</v>
+        <v>0.97822514379622016</v>
       </c>
       <c r="E49">
         <f>buffer!E49/'Mungiture totali'!D49</f>
@@ -16123,12 +16915,917 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
+  <mergeCells count="48">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EEF9B5-D102-4F25-B2EB-F1BA27739AC5}">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2">
+        <v>10452.51</v>
+      </c>
+      <c r="D2">
+        <v>21657.083333333328</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>0.4826370125247707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3">
+        <v>8941.9500000000007</v>
+      </c>
+      <c r="D3">
+        <v>18171.150000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E49" si="0">C3/D3</f>
+        <v>0.49209598732056031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4">
+        <v>8808.7999999999993</v>
+      </c>
+      <c r="D4">
+        <v>18257.366666666661</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.48247921843420294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5">
+        <v>8870.2099999999991</v>
+      </c>
+      <c r="D5">
+        <v>17369.616666666661</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.51067390663965917</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6">
+        <v>27696.77</v>
+      </c>
+      <c r="D6">
+        <v>53716.866666666669</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.51560658166956874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7">
+        <v>41008.82</v>
+      </c>
+      <c r="D7">
+        <v>82181.100000000006</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.49900548909664139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8">
+        <v>47174.45</v>
+      </c>
+      <c r="D8">
+        <v>88378.083333333328</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.53377996241526693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9">
+        <v>49624.71</v>
+      </c>
+      <c r="D9">
+        <v>97935.616666666669</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.5067074848663331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10">
+        <v>40752.99</v>
+      </c>
+      <c r="D10">
+        <v>84410.55</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.48279498238075685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11">
+        <v>8471.65</v>
+      </c>
+      <c r="D11">
+        <v>17830.916666666672</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.47511017848213061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12">
+        <v>9920.35</v>
+      </c>
+      <c r="D12">
+        <v>20828.683333333331</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.47628310638934618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13">
+        <v>27941.63</v>
+      </c>
+      <c r="D13">
+        <v>77051.95</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.362633651711605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14">
+        <v>37355.61</v>
+      </c>
+      <c r="D14">
+        <v>93535.53333333334</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.39937346448729288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15">
+        <v>38253.01</v>
+      </c>
+      <c r="D15">
+        <v>89213.85</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.42877882750268037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16">
+        <v>41413.26</v>
+      </c>
+      <c r="D16">
+        <v>92768.78333333334</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.44641374514092114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17">
+        <v>47698.85</v>
+      </c>
+      <c r="D17">
+        <v>96725.9</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.4931342070738034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18">
+        <v>54992.57</v>
+      </c>
+      <c r="D18">
+        <v>107628.6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.51094755483207988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19">
+        <v>55143.83</v>
+      </c>
+      <c r="D19">
+        <v>102834.5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.53623861641764192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20">
+        <v>62704.92</v>
+      </c>
+      <c r="D20">
+        <v>109765.8833333333</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.5712605601649452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21">
+        <v>61063.02</v>
+      </c>
+      <c r="D21">
+        <v>112582.1166666667</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.54238649803321326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22">
+        <v>53412</v>
+      </c>
+      <c r="D22">
+        <v>106283.0333333333</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.50254493426514313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23">
+        <v>20990.73</v>
+      </c>
+      <c r="D23">
+        <v>44098.466666666667</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.47599682226290557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24">
+        <v>45300.800000000003</v>
+      </c>
+      <c r="D24">
+        <v>90040.883333333331</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.50311367817545105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25">
+        <v>45638.59</v>
+      </c>
+      <c r="D25">
+        <v>88910.183333333334</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.51331116739346128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26">
+        <v>46718.559999999998</v>
+      </c>
+      <c r="D26">
+        <v>87592.7</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.53336134175564853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27">
+        <v>16850.349999999999</v>
+      </c>
+      <c r="D27">
+        <v>30579.9</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.55102698177561071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28">
+        <v>16951.12</v>
+      </c>
+      <c r="D28">
+        <v>30544.833333333328</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.55495866731416665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29">
+        <v>44350.67</v>
+      </c>
+      <c r="D29">
+        <v>75977.233333333337</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.58373631223739386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30">
+        <v>56501.96</v>
+      </c>
+      <c r="D30">
+        <v>100652.7</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.56135563179129822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31">
+        <v>54091.99</v>
+      </c>
+      <c r="D31">
+        <v>97605.866666666669</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.55418789717557959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32">
+        <v>57983.78</v>
+      </c>
+      <c r="D32">
+        <v>101771.9666666667</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.56974215885906998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33">
+        <v>53018.61</v>
+      </c>
+      <c r="D33">
+        <v>93950.333333333328</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.56432593817300636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34">
+        <v>45823.9</v>
+      </c>
+      <c r="D34">
+        <v>84163.78333333334</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.54446102807086261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35">
+        <v>40733.89</v>
+      </c>
+      <c r="D35">
+        <v>77454.233333333337</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.52590914979039227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36">
+        <v>35333.120000000003</v>
+      </c>
+      <c r="D36">
+        <v>70088.03333333334</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.50412486011639646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37">
+        <v>34961.919999999998</v>
+      </c>
+      <c r="D37">
+        <v>64946.333333333343</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.53832015150970791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38">
+        <v>37001.46</v>
+      </c>
+      <c r="D38">
+        <v>62548.55</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.59156383321435901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39">
+        <v>43917.93</v>
+      </c>
+      <c r="D39">
+        <v>68437.566666666666</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.641722552964332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40">
+        <v>51368.3</v>
+      </c>
+      <c r="D40">
+        <v>82593.583333333328</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.62194056640800388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41">
+        <v>47678.69</v>
+      </c>
+      <c r="D41">
+        <v>85093.983333333337</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.56030624178481869</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42">
+        <v>31323.96</v>
+      </c>
+      <c r="D42">
+        <v>54187.633333333331</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.57806473678803716</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43">
+        <v>9301.84</v>
+      </c>
+      <c r="D43">
+        <v>15692.4</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.59276082689709675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44">
+        <v>9288.8700000000008</v>
+      </c>
+      <c r="D44">
+        <v>15848.48333333333</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.58610466406354356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45">
+        <v>9537.5499999999993</v>
+      </c>
+      <c r="D45">
+        <v>16017.63333333333</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.59544064978388411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46">
+        <v>9346.9</v>
+      </c>
+      <c r="D46">
+        <v>16066.61666666667</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.5817590718643314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47">
+        <v>9494.76</v>
+      </c>
+      <c r="D47">
+        <v>15834.58333333333</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.5996217140752047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48">
+        <v>9500.51</v>
+      </c>
+      <c r="D48">
+        <v>15716.33333333333</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.60449914102101865</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49">
+        <v>9586.3799999999992</v>
+      </c>
+      <c r="D49">
+        <v>15957.816666666669</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.60073255635430478</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>